--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_261.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_261.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33013-d77044-Reviews-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>144</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Extended-Stay-America-Los-Angeles-San-Dimas.h120266.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_261.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_261.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="685">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1929 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r575274404-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>33013</t>
+  </si>
+  <si>
+    <t>77044</t>
+  </si>
+  <si>
+    <t>575274404</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>The Extended Stay America is a wonderful place to stay, it is super convenient to walk to all of the downtown shopping areas, dining &amp; freeways. The staff are very helpful &amp; friendly. Daniel at the front desk has gone above &amp; beyond to make sure that my stay was perfect. I would definitely recommend this hotel to anyone traveling in the area looking for a good nights rest &amp; a comfortable place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded April 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2018</t>
+  </si>
+  <si>
+    <t>The Extended Stay America is a wonderful place to stay, it is super convenient to walk to all of the downtown shopping areas, dining &amp; freeways. The staff are very helpful &amp; friendly. Daniel at the front desk has gone above &amp; beyond to make sure that my stay was perfect. I would definitely recommend this hotel to anyone traveling in the area looking for a good nights rest &amp; a comfortable place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r574385236-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>574385236</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>Not Worth it paid too much for terrible room!!!</t>
+  </si>
+  <si>
+    <t>The overall experience in the room was not satisfying the cabinets were worn out the trash was never thrown out the chairs are dirty with stains tje windows are so nasty with spider webs and top it off the continental breakfast was disappointing they gave coffee with muffin that's all!!!! never coming again i paid alot for this type of room not worth it at allMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2018</t>
+  </si>
+  <si>
+    <t>The overall experience in the room was not satisfying the cabinets were worn out the trash was never thrown out the chairs are dirty with stains tje windows are so nasty with spider webs and top it off the continental breakfast was disappointing they gave coffee with muffin that's all!!!! never coming again i paid alot for this type of room not worth it at allMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r574086339-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>574086339</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Extended Stay America San Dimas Ca</t>
+  </si>
+  <si>
+    <t>The staff at the hotel is very polite and very accommodating would definitely recommend this hotel if you plan on staying in the San Dimas area... Big plus the hotel is pet friendly as well as smoking rooms MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>The staff at the hotel is very polite and very accommodating would definitely recommend this hotel if you plan on staying in the San Dimas area... Big plus the hotel is pet friendly as well as smoking rooms More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r577786372-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>577786372</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>I just love this place</t>
+  </si>
+  <si>
+    <t>I would recommend this place. They are so nice and caring,  They go out of their way to help you with anything. I just wish they had a pool, but I do have to say they have a dogie area for your four legged kids and they are great with the m.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2018</t>
+  </si>
+  <si>
+    <t>I would recommend this place. They are so nice and caring,  They go out of their way to help you with anything. I just wish they had a pool, but I do have to say they have a dogie area for your four legged kids and they are great with the m.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r568110645-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>568110645</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>great service</t>
+  </si>
+  <si>
+    <t>We stay there when we visit California every year. They have always gone out of there way to make sure we have a great stay. The manager Dennice was so nice to us and very helpful. She even comped us one night because we did not want to be near the car wash but there were no other rooms available. It turned out to be no problem because we didn't really hear much noise anyway. We will stay there again also because it is very close to every thing we needed to be near.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>We stay there when we visit California every year. They have always gone out of there way to make sure we have a great stay. The manager Dennice was so nice to us and very helpful. She even comped us one night because we did not want to be near the car wash but there were no other rooms available. It turned out to be no problem because we didn't really hear much noise anyway. We will stay there again also because it is very close to every thing we needed to be near.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r567718045-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>567718045</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Mediocre stay</t>
+  </si>
+  <si>
+    <t>Not run down at all but not very clean. A few debris items by the front door. The elevator floor appeared to be wooden but hadn’t been properly cleaned in some time. Leaves on the carpet as you come off the elevator on floor 3. Stayed there for days so obviously vacuuming is not a priority. Asked where the ice machine was and was told they have none. Found the previous guests’ leftovers in my fridge so they don’t check there either. The bed left a lot to be desired and my pillow I affectionately nicknamed “the pancake.” MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Not run down at all but not very clean. A few debris items by the front door. The elevator floor appeared to be wooden but hadn’t been properly cleaned in some time. Leaves on the carpet as you come off the elevator on floor 3. Stayed there for days so obviously vacuuming is not a priority. Asked where the ice machine was and was told they have none. Found the previous guests’ leftovers in my fridge so they don’t check there either. The bed left a lot to be desired and my pillow I affectionately nicknamed “the pancake.” More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r540423699-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>540423699</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Clean but horribly dated</t>
+  </si>
+  <si>
+    <t>Extended Stay should be embarrassed. The room was clean but so old and need of updating. Stephanie was fantastic but you can only do so much with such outdated decor. I’m talking 70s type and despite being clean, even smelled old. I’ve stayed at other Extended Stay hotels and was frankly shocked. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Extended Stay should be embarrassed. The room was clean but so old and need of updating. Stephanie was fantastic but you can only do so much with such outdated decor. I’m talking 70s type and despite being clean, even smelled old. I’ve stayed at other Extended Stay hotels and was frankly shocked. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r536135854-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>536135854</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strange policies </t>
+  </si>
+  <si>
+    <t>I have stayed at extended stay type properties but never this particular brand. House keeping is only scheduled to come to your room once a week. We checked in on a Tuesday and checked out 8 days later on a Wednesday. When we checked in they told us housekeeping wouldn't be there until Tuesday, the day before we checked out which seemed strange. Also we  were told we would have to call every time we needed anything as far as cooking utensils. We called for forks a few times and had to wait to eat 20 minutes until they brought them. Very inconvenient. We called for plates one day and never received them, we just gave up and made do. We got interrogated half way through our stay when we asked for more toilet paper. I'm assuming this property has issues with theft because they gave us a hard time with every little tiny thing we asked for. We wanted an extra towel and were told we could not have them until we brought the dirtying down.  Also breakfast is non existent and disappointing. Coffee bar with oatmeal packets and granola bar does not a free breakfast make. Will not stay here in the future if we can help it. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed at extended stay type properties but never this particular brand. House keeping is only scheduled to come to your room once a week. We checked in on a Tuesday and checked out 8 days later on a Wednesday. When we checked in they told us housekeeping wouldn't be there until Tuesday, the day before we checked out which seemed strange. Also we  were told we would have to call every time we needed anything as far as cooking utensils. We called for forks a few times and had to wait to eat 20 minutes until they brought them. Very inconvenient. We called for plates one day and never received them, we just gave up and made do. We got interrogated half way through our stay when we asked for more toilet paper. I'm assuming this property has issues with theft because they gave us a hard time with every little tiny thing we asked for. We wanted an extra towel and were told we could not have them until we brought the dirtying down.  Also breakfast is non existent and disappointing. Coffee bar with oatmeal packets and granola bar does not a free breakfast make. Will not stay here in the future if we can help it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r529602120-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>529602120</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Last time</t>
+  </si>
+  <si>
+    <t>Taking copies of my personal ID is not right, it is to easy for credit card fraud. Your credit card machine was not working and I offered to pay cash. The manager was called and said I could not pay cash They said either let the attendant copy my ID or leave and find another hotel it was after 10:00 pmMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Taking copies of my personal ID is not right, it is to easy for credit card fraud. Your credit card machine was not working and I offered to pay cash. The manager was called and said I could not pay cash They said either let the attendant copy my ID or leave and find another hotel it was after 10:00 pmMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r507979390-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>507979390</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Rooms and a Better Staff</t>
+  </si>
+  <si>
+    <t>The rooms here are clean, spacious and quiet. The staff really goes out of their way to make you feel like your at home. The grounds are always clean, well lit and you really do feel safe here.   I very much enjoy the stay here...but they really need to work on their Internet speed and Cable package, that is the only black eye to a wonderful Hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>The rooms here are clean, spacious and quiet. The staff really goes out of their way to make you feel like your at home. The grounds are always clean, well lit and you really do feel safe here.   I very much enjoy the stay here...but they really need to work on their Internet speed and Cable package, that is the only black eye to a wonderful Hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r506952082-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>506952082</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Extending my STAY AWAY from this hotel location</t>
+  </si>
+  <si>
+    <t>Here because we have a pet. Good location, rooms okay in size and condition. All good ends there. A traveler feels like an outsider here as most of the 'guests' live here. Loose dogs, children and a bit of all kinds wander 24/7. The 'staff' are so used to it that they do not seem to notice anything. Overflowing trashcans, Homeless sleeping near the pet green area - quite sketchy. I have stayed here MANY times and though I was never thrilled - I put up with it due to location for my needs. This place is complacent with who lives here and how they are treated. Clean it up people and actually care. It is a hospitality business. Isn't it? KEEP LOOKING!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Here because we have a pet. Good location, rooms okay in size and condition. All good ends there. A traveler feels like an outsider here as most of the 'guests' live here. Loose dogs, children and a bit of all kinds wander 24/7. The 'staff' are so used to it that they do not seem to notice anything. Overflowing trashcans, Homeless sleeping near the pet green area - quite sketchy. I have stayed here MANY times and though I was never thrilled - I put up with it due to location for my needs. This place is complacent with who lives here and how they are treated. Clean it up people and actually care. It is a hospitality business. Isn't it? KEEP LOOKING!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r504322843-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>504322843</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>Would not stay again due to the fact their accommodations that they advertise you do not get, and your made to feel that it's your fault because their fully booked.  Have told family and friends about our experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Would not stay again due to the fact their accommodations that they advertise you do not get, and your made to feel that it's your fault because their fully booked.  Have told family and friends about our experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r493291612-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>493291612</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>Overdue for a deep cleaning or remodel</t>
+  </si>
+  <si>
+    <t>It's clear that the only cleaning is a perfunctory vacuum or mopping as there is scummy buildup in every corner. There are kitchens in the room but our room (309) was not equipped. All the cupboards were completely empty. There was no coffee pot in the room. Fan in the bathroom doesn't work. The bathroom door doesn't clear the kitchen counter and is annoying, especially since the kitchen is useless. No staff overnight so tough luck if you want a wifi password at 6:30 a.m. Breakfast is disgusting. Prepackaged tiny old muffins and granola bars. That's the entire offerings for breakfast. Front desk staff was responsive and professional. was responsive and professional. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2017</t>
+  </si>
+  <si>
+    <t>It's clear that the only cleaning is a perfunctory vacuum or mopping as there is scummy buildup in every corner. There are kitchens in the room but our room (309) was not equipped. All the cupboards were completely empty. There was no coffee pot in the room. Fan in the bathroom doesn't work. The bathroom door doesn't clear the kitchen counter and is annoying, especially since the kitchen is useless. No staff overnight so tough luck if you want a wifi password at 6:30 a.m. Breakfast is disgusting. Prepackaged tiny old muffins and granola bars. That's the entire offerings for breakfast. Front desk staff was responsive and professional. was responsive and professional. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r491043744-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>491043744</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Some Challenges</t>
+  </si>
+  <si>
+    <t>We recently stayed at this property based on the fact that it has a full kitchen and we have dietary restrictions that require us to prepare all of our own meals.  Consequently the kitchen was very important.  We found that the microwave was not particularly clean and one of the stove burners didn't work.  Additionally, the tub/shower in both rooms we stayed in literally ran, not dripped, water.  Our last night, the tub spout completely broke and we couldn't shower at all.  This was reported the next morning.  There was also a urine smell in one corner of the room - this is a dog friendly property.  Lastly, the front walkways to the lobby were covered in cigarette butts and people were smoking near the entrance.  I'll close on a good note - the front desk staff were incredibly friendly and considerate-they made every effort to accommodate any request we made.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded June 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2017</t>
+  </si>
+  <si>
+    <t>We recently stayed at this property based on the fact that it has a full kitchen and we have dietary restrictions that require us to prepare all of our own meals.  Consequently the kitchen was very important.  We found that the microwave was not particularly clean and one of the stove burners didn't work.  Additionally, the tub/shower in both rooms we stayed in literally ran, not dripped, water.  Our last night, the tub spout completely broke and we couldn't shower at all.  This was reported the next morning.  There was also a urine smell in one corner of the room - this is a dog friendly property.  Lastly, the front walkways to the lobby were covered in cigarette butts and people were smoking near the entrance.  I'll close on a good note - the front desk staff were incredibly friendly and considerate-they made every effort to accommodate any request we made.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r490537366-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>490537366</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Great Staff - Minimum Services</t>
+  </si>
+  <si>
+    <t>Good location - great staff - pet friendly - minimum services.  They claim they are a home away from home - it might be that.  If you're looking for a hotel experience, then this isn't the place for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Good location - great staff - pet friendly - minimum services.  They claim they are a home away from home - it might be that.  If you're looking for a hotel experience, then this isn't the place for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r470681543-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>470681543</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Fantastic Experience</t>
+  </si>
+  <si>
+    <t>I must admit that I was not expecting what I got.  At this hotel you are not just a paying number, but a person due respect, and courtesy.  Everyone from the maids to the front desk took a moment to speak with a smile to both myself and my family.  From their expressions we believe each one loves their jobs and helping their customers.  This type of attitude only comes from good management and training.  The employees I wish to mention are the following:  Kyra, Ron, Ygnacio, Liz, and my favorite maid Lora.The rooms were cleanly maintained, and if I had a problem it was immediately taken care of.  The front desk personnel are fantastic and I noticed them go out of their way to help everyone that visited.  I stood around and watched how professionally they handled problems.  One at a time regardless of the attitude of the customer got personal service.The location is fantastic.  Restaurants of all types within walking distance, exercise facility close by, and the environment is safe for families.  I highly recommend this hotel.  If I were to comment on the negative issues I found I would be hard pressed, and I have travelled all over the world.  Stayed at thousands of hotels and paid for services that were not delivered as well as it was here.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2017</t>
+  </si>
+  <si>
+    <t>I must admit that I was not expecting what I got.  At this hotel you are not just a paying number, but a person due respect, and courtesy.  Everyone from the maids to the front desk took a moment to speak with a smile to both myself and my family.  From their expressions we believe each one loves their jobs and helping their customers.  This type of attitude only comes from good management and training.  The employees I wish to mention are the following:  Kyra, Ron, Ygnacio, Liz, and my favorite maid Lora.The rooms were cleanly maintained, and if I had a problem it was immediately taken care of.  The front desk personnel are fantastic and I noticed them go out of their way to help everyone that visited.  I stood around and watched how professionally they handled problems.  One at a time regardless of the attitude of the customer got personal service.The location is fantastic.  Restaurants of all types within walking distance, exercise facility close by, and the environment is safe for families.  I highly recommend this hotel.  If I were to comment on the negative issues I found I would be hard pressed, and I have travelled all over the world.  Stayed at thousands of hotels and paid for services that were not delivered as well as it was here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r468117957-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>468117957</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>My Second Stay Here - Would Stay Again Next Year if Passing Through</t>
+  </si>
+  <si>
+    <t>I've stayed here last year as well as this year.  It is right off the highway, near some good restaurants too, and gas is nearby - essentially everything I have needed was nearby.  The room was clean and it has a fridge, stove, microwave, etc.  I might use the frig for one night or even the microwave.  I had an issue with my sink in the bathroom - there is another sink if necessary in the 'kitchen' area of the room.  The General Manager worked with me to resolve the issue and that resolution was fine.  I would stay here again if passing by the area as it is a known entity - and convenient as noted previously.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2017</t>
+  </si>
+  <si>
+    <t>I've stayed here last year as well as this year.  It is right off the highway, near some good restaurants too, and gas is nearby - essentially everything I have needed was nearby.  The room was clean and it has a fridge, stove, microwave, etc.  I might use the frig for one night or even the microwave.  I had an issue with my sink in the bathroom - there is another sink if necessary in the 'kitchen' area of the room.  The General Manager worked with me to resolve the issue and that resolution was fine.  I would stay here again if passing by the area as it is a known entity - and convenient as noted previously.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r457649393-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>457649393</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Horribly Maintained</t>
+  </si>
+  <si>
+    <t>Where to begin? Strong cigarette smell and dirty ashtray in the sink. Yuk! At least five broken items in the room, the worst of which was the shower, which meant taking a bath in their stained tub. Double yuk. Not recommended!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r445271474-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>445271474</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annoying tub faucet drip never fixed </t>
+  </si>
+  <si>
+    <t>This is my 2nd stay at this hotel this year. The first time was good. This time, not so good. The reason I am downgrading this review is because this hotel needs maintenance or updating. The shower/tub faucet in my room dripped a heavy drip or stream continuously after shutting off the shower. I requested maintenance but the maintenance I received did not resolve the problem. I considered requesting another room but I found that I could sleep if I closed the bathroom door and turned the A/C fan to stay on continuously all night. There were other issues with the plumbing but were not as annoying as the drip in the tub. Other than that the price is right for what you get, kitchenette, and mini breakfast.There was also a burn hole on the front cover of the microwave oven which was a little disconcerting but the diffuser was clean so I used it.The "help save water" sign in the bathroom should be removed if the plumbing issues are not resolved because this hotel apparently does not care about saving water!I will consider other hotel options next time I visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>This is my 2nd stay at this hotel this year. The first time was good. This time, not so good. The reason I am downgrading this review is because this hotel needs maintenance or updating. The shower/tub faucet in my room dripped a heavy drip or stream continuously after shutting off the shower. I requested maintenance but the maintenance I received did not resolve the problem. I considered requesting another room but I found that I could sleep if I closed the bathroom door and turned the A/C fan to stay on continuously all night. There were other issues with the plumbing but were not as annoying as the drip in the tub. Other than that the price is right for what you get, kitchenette, and mini breakfast.There was also a burn hole on the front cover of the microwave oven which was a little disconcerting but the diffuser was clean so I used it.The "help save water" sign in the bathroom should be removed if the plumbing issues are not resolved because this hotel apparently does not care about saving water!I will consider other hotel options next time I visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r439647044-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>439647044</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>ok for the price</t>
+  </si>
+  <si>
+    <t>the price was right and the room decent sized.  the exterior is well maintained and the parking, ample.  It was, however, not very clean.  The hallways were dirty and there were large stains on the carpet in the room.   I haven't stayed in an extended stay before but for those that don't know - apparently the rooms are cleaned according to a schedule.  I was there 6 days and no cleaning.  Maybe I missed it by 1 day. There's a small kitchen but you have to request what dishes you want.  For the low price it is okay but especially as a woman traveling alone I'd spend a little more, like $20 or $25 more a night, and get something a cleaner and a bit more comfortable with breakfast and a fitness center. Some Extended Stays have them but not this oneMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>the price was right and the room decent sized.  the exterior is well maintained and the parking, ample.  It was, however, not very clean.  The hallways were dirty and there were large stains on the carpet in the room.   I haven't stayed in an extended stay before but for those that don't know - apparently the rooms are cleaned according to a schedule.  I was there 6 days and no cleaning.  Maybe I missed it by 1 day. There's a small kitchen but you have to request what dishes you want.  For the low price it is okay but especially as a woman traveling alone I'd spend a little more, like $20 or $25 more a night, and get something a cleaner and a bit more comfortable with breakfast and a fitness center. Some Extended Stays have them but not this oneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r434662697-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>434662697</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>The rooms are clean, the staff friendly, and we were able to bring our dogs with us.  There are no hair dryers, kitchen utensils, or daily housekeeping services, but you just need to ask for it if desired.  There is an area to take your dogs behind the hotel with doggie bags.  The television reception wasn't the greatest, but doable, since most people don't spend a lot of time watching it. The charge for our two dogs was pricey, That is really my only serious complaint, as our dogs are very well behaved.  I would recommend the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded November 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2016</t>
+  </si>
+  <si>
+    <t>The rooms are clean, the staff friendly, and we were able to bring our dogs with us.  There are no hair dryers, kitchen utensils, or daily housekeeping services, but you just need to ask for it if desired.  There is an area to take your dogs behind the hotel with doggie bags.  The television reception wasn't the greatest, but doable, since most people don't spend a lot of time watching it. The charge for our two dogs was pricey, That is really my only serious complaint, as our dogs are very well behaved.  I would recommend the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r385926618-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>385926618</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>If I could give zero stars, I would</t>
+  </si>
+  <si>
+    <t>Apart from Ron, the receptionist who greeted us, the rest is absolutely horrendous.Let's start from the beginning. We asked for a non smoking room and our room reeked of smoke smell. It took us many candles and sprays to be able to tolerate the air in the room. The room was ok at best. The carpet was dirty. The laminated floor was REALLY dirty. I had to mop it myself to clean it. The bed was uncomfortable and the mattress was too soft. For someone who suffers from back pains, it's a nightmare. Worst part? My chihuahua got fleas in the hotel. She is 6 years old and never had fleas ever. It took a couple of days in this place for her to be covered in them. I had to buy anti flea products over and over to finally get rid of them and the only time she was cleared was when we left the hotel. We reported the fleas to the receptionist (an African-American tall woman, don't remember the name at all) whose answer was nothing but a very passive aggressive "aww that sucks". Are you serious?????? I had asked if I could have my mail sent there during my stay and I was told yes. But all my mail was either sent back or thrown out. In short... Stay away from this place. It's a horrible dirty overpriced place. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Apart from Ron, the receptionist who greeted us, the rest is absolutely horrendous.Let's start from the beginning. We asked for a non smoking room and our room reeked of smoke smell. It took us many candles and sprays to be able to tolerate the air in the room. The room was ok at best. The carpet was dirty. The laminated floor was REALLY dirty. I had to mop it myself to clean it. The bed was uncomfortable and the mattress was too soft. For someone who suffers from back pains, it's a nightmare. Worst part? My chihuahua got fleas in the hotel. She is 6 years old and never had fleas ever. It took a couple of days in this place for her to be covered in them. I had to buy anti flea products over and over to finally get rid of them and the only time she was cleared was when we left the hotel. We reported the fleas to the receptionist (an African-American tall woman, don't remember the name at all) whose answer was nothing but a very passive aggressive "aww that sucks". Are you serious?????? I had asked if I could have my mail sent there during my stay and I was told yes. But all my mail was either sent back or thrown out. In short... Stay away from this place. It's a horrible dirty overpriced place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r385856104-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>385856104</t>
+  </si>
+  <si>
+    <t>Ok place for the price</t>
+  </si>
+  <si>
+    <t>Ok, to start off I was kind of thrown when the front doors weren't automatic. Being a hotel you would think an automatic front door would be a given. The rooms are good! However, when I looked at the door to the bathroom, the doorstop had a bunch of goop on it that I cleaned myself. The bathtub faucet was off the wall and just hanging there as well as the shower head. The smoke alarm was also off the ceiling just hanging there.They do have a continental breakfast but it's just coffee, packaged muffins, some granola bars and packaged oatmeal. Not a big deal for us since we were visiting family. The lobby entrance smelled like dirty dogs. They do allow pets so that's the reason. Tv shows are limited  like 15 channels. But again, we were visiting family so not a big deal. There is a best western literally next door. I would suggest there for a bit more money. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Ok, to start off I was kind of thrown when the front doors weren't automatic. Being a hotel you would think an automatic front door would be a given. The rooms are good! However, when I looked at the door to the bathroom, the doorstop had a bunch of goop on it that I cleaned myself. The bathtub faucet was off the wall and just hanging there as well as the shower head. The smoke alarm was also off the ceiling just hanging there.They do have a continental breakfast but it's just coffee, packaged muffins, some granola bars and packaged oatmeal. Not a big deal for us since we were visiting family. The lobby entrance smelled like dirty dogs. They do allow pets so that's the reason. Tv shows are limited  like 15 channels. But again, we were visiting family so not a big deal. There is a best western literally next door. I would suggest there for a bit more money. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r375220034-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>375220034</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Fine place to stay for the price</t>
+  </si>
+  <si>
+    <t>We stayed there while my son was playing in a water polo tournament. It is a fine basic place, clean rooms. We did not partake in the breakfast. Good location. When we first arrived, one of our rooms which was supposed to be non-smoking reeked of cigarettes. It took convincing the front desk that we needed a change, once they came up and realized we were correct, they made a quick switch to another room. Basic, rooms for the money. No work out space but I found a very nice fitness center nearby. There is a Target and plenty of fast food places for those looking for bargain food options, too. Clean place, certainly not luxurious but that wasn't our goal on this trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded May 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2016</t>
+  </si>
+  <si>
+    <t>We stayed there while my son was playing in a water polo tournament. It is a fine basic place, clean rooms. We did not partake in the breakfast. Good location. When we first arrived, one of our rooms which was supposed to be non-smoking reeked of cigarettes. It took convincing the front desk that we needed a change, once they came up and realized we were correct, they made a quick switch to another room. Basic, rooms for the money. No work out space but I found a very nice fitness center nearby. There is a Target and plenty of fast food places for those looking for bargain food options, too. Clean place, certainly not luxurious but that wasn't our goal on this trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r345602305-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>345602305</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>Good for short term stay only</t>
+  </si>
+  <si>
+    <t>We recently stayed at this Extended Stay for one night during a long relocation trip. The location was relatively easy to find, close to gas and restaurants and parking was fairly open. After reading other reviews, I wasn't sure what to expect with front desk, but the girl was friendly and quick with our check-in. Much like other reviewers, I found the accommodations to be sub par for the nightly rate and can understand why people staying long term would be disappointed. The bathroom was old and the toilet handle broken. The kitchen sink had draining issues and the kitchen overall was definitely in need of renovation. Luckily this was only an overnight stay so I didn't feel the need to ask for another room.Pros: Good location, spacious, adequate heating, quietCons: Old and dingy, rooms in desperate need of renovations, no hot breakfastMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>We recently stayed at this Extended Stay for one night during a long relocation trip. The location was relatively easy to find, close to gas and restaurants and parking was fairly open. After reading other reviews, I wasn't sure what to expect with front desk, but the girl was friendly and quick with our check-in. Much like other reviewers, I found the accommodations to be sub par for the nightly rate and can understand why people staying long term would be disappointed. The bathroom was old and the toilet handle broken. The kitchen sink had draining issues and the kitchen overall was definitely in need of renovation. Luckily this was only an overnight stay so I didn't feel the need to ask for another room.Pros: Good location, spacious, adequate heating, quietCons: Old and dingy, rooms in desperate need of renovations, no hot breakfastMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r342209946-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>342209946</t>
+  </si>
+  <si>
+    <t>01/23/2016</t>
+  </si>
+  <si>
+    <t>Friendly Home Away from Home</t>
+  </si>
+  <si>
+    <t>This is a pet friendly hotel but we do not have a pet.   All of the pets were very much under control and everyone (both staff and guests) seemed to enjoy visiting with each other as we passed in the lobby or visited the breakfast bar.   This was not our first visit, nor will it be our last.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r334607762-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>334607762</t>
+  </si>
+  <si>
+    <t>12/23/2015</t>
+  </si>
+  <si>
+    <t>Extremely satisfied</t>
+  </si>
+  <si>
+    <t>I was in the middle of a move and was staying at a motel (which I won't mention the name just that they will "leave the lights on for you") near extended stay. I ended up leaving and still had about 3 or 4 nights before my new place would be move in ready. I reserved my remaining days here and really wish I would have just stayed here from the beginning. The rooms are very spacious and comfortable especially when I have my 2 dogs with me. The staff was really nice and accommodating, the grounds are clean and plenty of room for my dogs to walk around. There are many places that say they are "pet friendly" but in reality you have to meet many restrictions in order to allow them to stay with you. This place is not like that when they say pet friendly that's exactly what they mean. Yes of course there are fees that come with it and that is to be expected and well worth it since it's not unreasonable. Thank you again for a comfortable stay during a time when my life was a little upside down.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded December 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2015</t>
+  </si>
+  <si>
+    <t>I was in the middle of a move and was staying at a motel (which I won't mention the name just that they will "leave the lights on for you") near extended stay. I ended up leaving and still had about 3 or 4 nights before my new place would be move in ready. I reserved my remaining days here and really wish I would have just stayed here from the beginning. The rooms are very spacious and comfortable especially when I have my 2 dogs with me. The staff was really nice and accommodating, the grounds are clean and plenty of room for my dogs to walk around. There are many places that say they are "pet friendly" but in reality you have to meet many restrictions in order to allow them to stay with you. This place is not like that when they say pet friendly that's exactly what they mean. Yes of course there are fees that come with it and that is to be expected and well worth it since it's not unreasonable. Thank you again for a comfortable stay during a time when my life was a little upside down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r329626124-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>329626124</t>
+  </si>
+  <si>
+    <t>11/28/2015</t>
+  </si>
+  <si>
+    <t>Great staff!</t>
+  </si>
+  <si>
+    <t>This is a good value and while it's not exactly a full service hotel, it's a great place if you need a kitchen,  full size fridge and amazingly nice staff.  Ygnacio and David, along with a few others,  were so nice.  I left my phone chargers in the room when we checked out.  Upon returning a few hours later, they saw me walking in and had them waiting for me at the front desk.  Ygnacio also helped me change my reservation and get a refund for one day!  Just outstanding customer service.  Thanks,  guys!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2015</t>
+  </si>
+  <si>
+    <t>This is a good value and while it's not exactly a full service hotel, it's a great place if you need a kitchen,  full size fridge and amazingly nice staff.  Ygnacio and David, along with a few others,  were so nice.  I left my phone chargers in the room when we checked out.  Upon returning a few hours later, they saw me walking in and had them waiting for me at the front desk.  Ygnacio also helped me change my reservation and get a refund for one day!  Just outstanding customer service.  Thanks,  guys!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r328609531-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>328609531</t>
+  </si>
+  <si>
+    <t>11/23/2015</t>
+  </si>
+  <si>
+    <t>Horrible place to stay</t>
+  </si>
+  <si>
+    <t>Poor room service, horrible pillows, uncordial staff, toilet didn't work, even after repairman tried to fix it. No hairdryer in room--had to ask for it.  No utensils in kitchen and we were told we had to ask for them.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded November 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2015</t>
+  </si>
+  <si>
+    <t>Poor room service, horrible pillows, uncordial staff, toilet didn't work, even after repairman tried to fix it. No hairdryer in room--had to ask for it.  No utensils in kitchen and we were told we had to ask for them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r326620220-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>326620220</t>
+  </si>
+  <si>
+    <t>11/13/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointment </t>
+  </si>
+  <si>
+    <t>I booked a Studio Suite 2 Full Beds room from this hotels website directly, not from any travel site 2 months in advance and when I arrive I was told that they had no rooms of this type available. Therefore I was given a room that was musty, smokey, had a sign that said this is a none smoking room however there was an ash tray on the table?? It smelt so awful to the point I needed to go get an air fresher in order to sleep through the night. One thing to keep in mind, this hotel has ZERO amenities. If you forget anything as simple as Tums, Advil, tooth paste, the BARE MINIMUM essentials, they have nothing here for purchase. You have to walk yourself across the street to a gas station for those items. This was my first stay at ESA and I'm disappointed to say it'll be the last. MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked a Studio Suite 2 Full Beds room from this hotels website directly, not from any travel site 2 months in advance and when I arrive I was told that they had no rooms of this type available. Therefore I was given a room that was musty, smokey, had a sign that said this is a none smoking room however there was an ash tray on the table?? It smelt so awful to the point I needed to go get an air fresher in order to sleep through the night. One thing to keep in mind, this hotel has ZERO amenities. If you forget anything as simple as Tums, Advil, tooth paste, the BARE MINIMUM essentials, they have nothing here for purchase. You have to walk yourself across the street to a gas station for those items. This was my first stay at ESA and I'm disappointed to say it'll be the last. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r298532445-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>298532445</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>generic but convenient</t>
+  </si>
+  <si>
+    <t>nothing special to write about here, just a simple room with very generic furniture and fixtures. The studio kitchen was a bonus and the TV was fine with cable. Breakfast was limited, it isn't really a breakfast, it's more of a snack with granola bars, limited fruit, tiny muffins and coffee. It's enough to get you going until you actually have breakfast. Ample free parking and a dog walk for those so inclined (they accept small dogs). There is a small shopping center with a Home Depot as the anchor with a Sizzler, Denny's and small shops and gas station/car wash. It's located directly off the 57 on Arrow Hwy and just a couple of miles from Raging Waters waterpark. A 3 star rating is a reach, 2 and a half is more like it. Not a whole in the wall, just generic with no bells or whistles. There is also generic wifi with the option to upgrade for a fee.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2015</t>
+  </si>
+  <si>
+    <t>nothing special to write about here, just a simple room with very generic furniture and fixtures. The studio kitchen was a bonus and the TV was fine with cable. Breakfast was limited, it isn't really a breakfast, it's more of a snack with granola bars, limited fruit, tiny muffins and coffee. It's enough to get you going until you actually have breakfast. Ample free parking and a dog walk for those so inclined (they accept small dogs). There is a small shopping center with a Home Depot as the anchor with a Sizzler, Denny's and small shops and gas station/car wash. It's located directly off the 57 on Arrow Hwy and just a couple of miles from Raging Waters waterpark. A 3 star rating is a reach, 2 and a half is more like it. Not a whole in the wall, just generic with no bells or whistles. There is also generic wifi with the option to upgrade for a fee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r298187739-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>298187739</t>
+  </si>
+  <si>
+    <t>Clean rooms, good price</t>
+  </si>
+  <si>
+    <t>This hotel gave us a choice of paying one price with housekeeping services or one without housekeeping.  We chose without, which made it a really reasonable price compared to other options considered.  The room was an efficiency with it's own kitchenette with refrigerator, stove, sink, microwave.  You will need to request the kitchen items as they're not stocked in the room.  There's no hotel ice maker.  We didn't mind not having a housekeeper with the exception of towel service.  The "towel guy" who launders comes in at 11pm so our towel request at 7pm was a problem. The hotel is pet friendly and there's a nice grassy area with cleanup stations.  However, not all pet owner's are courteous enough to clean up after their pets and the trash cans were overflowing.  We did experience some "nighttime drunken drama" in the parking lot from one group staying in the hotel during a weekend.  Not a bad choice at this price point while traveling thru or a short stay in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel gave us a choice of paying one price with housekeeping services or one without housekeeping.  We chose without, which made it a really reasonable price compared to other options considered.  The room was an efficiency with it's own kitchenette with refrigerator, stove, sink, microwave.  You will need to request the kitchen items as they're not stocked in the room.  There's no hotel ice maker.  We didn't mind not having a housekeeper with the exception of towel service.  The "towel guy" who launders comes in at 11pm so our towel request at 7pm was a problem. The hotel is pet friendly and there's a nice grassy area with cleanup stations.  However, not all pet owner's are courteous enough to clean up after their pets and the trash cans were overflowing.  We did experience some "nighttime drunken drama" in the parking lot from one group staying in the hotel during a weekend.  Not a bad choice at this price point while traveling thru or a short stay in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r292397899-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>292397899</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Tender Loving Care</t>
+  </si>
+  <si>
+    <t>I needed to stay here at a difficult time.  Stay America staff and facilities fit the bill perfectly.    I was welcomed by a very friendly front desk person who explained what was available from Stay America during my stay.   Upon entering my room, I had not expect what could almost be considered a full kitchen with a comfortable bedroom and bath.  I was able to get all utensils I needed from the front desk for the kitchen.    This included a toaster, dishes, silver and mug, towels and dishwashing liguid included.   I am a very independed person and I enjoyed the convenience of being able to empty my own trash when needed, do laundry, pick up a quick "grab and go" breakfast if I wanted to.    It was very quiet, not a party house.    Perfect!!!   It really is a home away from home as much as any hotel could be, certainly for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2015</t>
+  </si>
+  <si>
+    <t>I needed to stay here at a difficult time.  Stay America staff and facilities fit the bill perfectly.    I was welcomed by a very friendly front desk person who explained what was available from Stay America during my stay.   Upon entering my room, I had not expect what could almost be considered a full kitchen with a comfortable bedroom and bath.  I was able to get all utensils I needed from the front desk for the kitchen.    This included a toaster, dishes, silver and mug, towels and dishwashing liguid included.   I am a very independed person and I enjoyed the convenience of being able to empty my own trash when needed, do laundry, pick up a quick "grab and go" breakfast if I wanted to.    It was very quiet, not a party house.    Perfect!!!   It really is a home away from home as much as any hotel could be, certainly for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r280661116-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>280661116</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>Nice place to stay with a pet</t>
+  </si>
+  <si>
+    <t>Come here at least 2-3 times a year. Very accommodating and super friendly. Ygnacio is great! Will go out of his way to help. The cutback on not having dishes, silverware or something to clean up spills on counter, etc.is a pain but the rooms are very nice, clean, and comfy. Not a smelly pet friendly hotel at all, which is what we like. Good price for the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded July 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2015</t>
+  </si>
+  <si>
+    <t>Come here at least 2-3 times a year. Very accommodating and super friendly. Ygnacio is great! Will go out of his way to help. The cutback on not having dishes, silverware or something to clean up spills on counter, etc.is a pain but the rooms are very nice, clean, and comfy. Not a smelly pet friendly hotel at all, which is what we like. Good price for the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r277091157-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>277091157</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Bare Minimum Extended Stay</t>
+  </si>
+  <si>
+    <t>This chain is my least favorite of the Extended stay hotels. So many amenities you don't get here but get at others for a similar price. Only small rooms, no 1 bedroom suites. No longer do the rooms come with dishes/silverware. You have to call them and tell them what you need. I guess this is another cost cutting  measure (haven't seen a similar reduction in rates!), but its a pain. I brought some stuff in for dinner, then realized on plates to put it on. Took about 45 minutes and two calls to front desk. for them to bring in my stuff.Got tired of the small room and changed to another Hotel, as I was going to be in the area for about 6 weeks.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded June 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2015</t>
+  </si>
+  <si>
+    <t>This chain is my least favorite of the Extended stay hotels. So many amenities you don't get here but get at others for a similar price. Only small rooms, no 1 bedroom suites. No longer do the rooms come with dishes/silverware. You have to call them and tell them what you need. I guess this is another cost cutting  measure (haven't seen a similar reduction in rates!), but its a pain. I brought some stuff in for dinner, then realized on plates to put it on. Took about 45 minutes and two calls to front desk. for them to bring in my stuff.Got tired of the small room and changed to another Hotel, as I was going to be in the area for about 6 weeks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r270222774-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>270222774</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>always great</t>
+  </si>
+  <si>
+    <t>Love this place. Very clean nicely appointed rooms. Very Friendly, helpful and professional staff. Good parking, quiet.Have stayed Here before when visiting Family and am never disappointed. Ygnacio is a familiar face, and was particularly helpful.The quality and rates makes it the best place to stay in San Dimas.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Love this place. Very clean nicely appointed rooms. Very Friendly, helpful and professional staff. Good parking, quiet.Have stayed Here before when visiting Family and am never disappointed. Ygnacio is a familiar face, and was particularly helpful.The quality and rates makes it the best place to stay in San Dimas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r260779815-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>260779815</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>Not a good place to stay for a business trip. No computer or printers available for business needs.Bathtub had hair, refrigerator was old and loud, gum stuck under kitchen counter and toilet continued to run. They did reimburse me for the inconvenience. Not in the best condition,  not maintained very well. Has a lot of paint on places as band aidsMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded April 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2015</t>
+  </si>
+  <si>
+    <t>Not a good place to stay for a business trip. No computer or printers available for business needs.Bathtub had hair, refrigerator was old and loud, gum stuck under kitchen counter and toilet continued to run. They did reimburse me for the inconvenience. Not in the best condition,  not maintained very well. Has a lot of paint on places as band aidsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r253555652-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>253555652</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>Quick night away</t>
+  </si>
+  <si>
+    <t>My husband and I were going to the Winternationals at the Speedway. We needed a place close by we could taxi to and from. This hotel worked perfectly. Only $7 ride with Uber. The gentleman at front desk was very friendly. Our room was clean, only draw back was noise. Refrigerator was very noisy whenever it kicked on. Also walls thin. Towels were like sandpaper :( Check out was very easy, once again front staff very friendly. They had coffee, muffins, fruit and granola bars in lobby. Overall it was a great stay, perfect for our needs. I will be back :)MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded February 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I were going to the Winternationals at the Speedway. We needed a place close by we could taxi to and from. This hotel worked perfectly. Only $7 ride with Uber. The gentleman at front desk was very friendly. Our room was clean, only draw back was noise. Refrigerator was very noisy whenever it kicked on. Also walls thin. Towels were like sandpaper :( Check out was very easy, once again front staff very friendly. They had coffee, muffins, fruit and granola bars in lobby. Overall it was a great stay, perfect for our needs. I will be back :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r250263383-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>250263383</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t>Stay Away</t>
+  </si>
+  <si>
+    <t>Omg worst terrified experience ever. Booked a room online to reserve. Got there in lobby and there's a sheriff at the table not the front desk. As soon as i tell the clerk my name the sheriff walks outside and gets on the phone. I get in the car to go to the store before I walk in my room, I get pulled over my 2 Undercover Police Cars asking me why did I leave the hotel. Omg I felt so terrified and confused. There running drug police stings at that hotel is what they told me. I was just trying to get a room and relax and take a nap. So if you look suspicious or with another person there going to harras you and question you. Be careful there. Never again! MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded January 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2015</t>
+  </si>
+  <si>
+    <t>Omg worst terrified experience ever. Booked a room online to reserve. Got there in lobby and there's a sheriff at the table not the front desk. As soon as i tell the clerk my name the sheriff walks outside and gets on the phone. I get in the car to go to the store before I walk in my room, I get pulled over my 2 Undercover Police Cars asking me why did I leave the hotel. Omg I felt so terrified and confused. There running drug police stings at that hotel is what they told me. I was just trying to get a room and relax and take a nap. So if you look suspicious or with another person there going to harras you and question you. Be careful there. Never again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r238716773-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>238716773</t>
+  </si>
+  <si>
+    <t>11/07/2014</t>
+  </si>
+  <si>
+    <t>Great stay!!</t>
+  </si>
+  <si>
+    <t>Upon check-in the manager and front desk person were very nice.  This place was a hidden gem I stayed here for a short time and really enjoyed my stay.  The customer service is great.  I would recommend to anyone that wants to stay at a nice hotel with reasonable rates.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded November 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2014</t>
+  </si>
+  <si>
+    <t>Upon check-in the manager and front desk person were very nice.  This place was a hidden gem I stayed here for a short time and really enjoyed my stay.  The customer service is great.  I would recommend to anyone that wants to stay at a nice hotel with reasonable rates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r235100836-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>235100836</t>
+  </si>
+  <si>
+    <t>10/18/2014</t>
+  </si>
+  <si>
+    <t>Good Price but NOT Clean</t>
+  </si>
+  <si>
+    <t>I can only give 2 stars because the outside of the hotel is nice and the grounds are kept. We did get a good price ($67!) and I felt safe there.Here is where the low score comes in: OUR. ROOM. WAS. FILTHY.I mean, it was flat-out gross. The carpets had clearly only been swept in the areas that people would notice. There was someone else's dirty sock behind the dresser. Underneath the bed was disgusting with dust and peanut shells. The bathroom shower had mold in the ground and there was mildew scum around the faucet. The toilet lid was cracked and the sink looked greasy. The kitchen part was fairly clean but the lamps in the room were covered in dust and it basically looked as if the maids were spot-cleaning only.Our room didn't have an odor but we had the unfortunate circumstance to be in a room next to someone with a very excitable dog who barked off and on all night. I hate to rate this hotel this low because it was a decent price but the cleaning staff here *really* need to step up their game.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I can only give 2 stars because the outside of the hotel is nice and the grounds are kept. We did get a good price ($67!) and I felt safe there.Here is where the low score comes in: OUR. ROOM. WAS. FILTHY.I mean, it was flat-out gross. The carpets had clearly only been swept in the areas that people would notice. There was someone else's dirty sock behind the dresser. Underneath the bed was disgusting with dust and peanut shells. The bathroom shower had mold in the ground and there was mildew scum around the faucet. The toilet lid was cracked and the sink looked greasy. The kitchen part was fairly clean but the lamps in the room were covered in dust and it basically looked as if the maids were spot-cleaning only.Our room didn't have an odor but we had the unfortunate circumstance to be in a room next to someone with a very excitable dog who barked off and on all night. I hate to rate this hotel this low because it was a decent price but the cleaning staff here *really* need to step up their game.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r234380828-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>234380828</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Clean lodging in a nice location</t>
+  </si>
+  <si>
+    <t>I stayed here to be close to an event at the Pomona Fairplex and it served its purpose very well. It is a easy and convenient drive to the Fairplex. The room was clean (though I didn't like the old-style bead spread). There are fast food and shopping options very close. The little kitchen was clean and well organized. There is a noisy car wash next door, but it closes at night so it's not a sleeping problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded November 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here to be close to an event at the Pomona Fairplex and it served its purpose very well. It is a easy and convenient drive to the Fairplex. The room was clean (though I didn't like the old-style bead spread). There are fast food and shopping options very close. The little kitchen was clean and well organized. There is a noisy car wash next door, but it closes at night so it's not a sleeping problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r221529430-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>221529430</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>Great room, nice front desk service.</t>
+  </si>
+  <si>
+    <t>I had to stay in San Dimas for a week for work. Upon arrival Lindsay at the front desk was very welcoming and helpful, getting me through to my room in a quick fashion but also adding a nice personal touch of friendliness to make me feel more at home here. The room was clean on arrival and it was nice to get a kitchen set to cook with and save some money on eating. I liked the variety of pillow options since I usually use a firmer pillow at home and they had one among the mix of soft and firm.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r218534336-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>218534336</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Best in the area</t>
+  </si>
+  <si>
+    <t>We stay at this Extended Stay America every time we come down here. The staff is friendly and always ready to help, if needed. Rooms are always very clean and comfy beds. Also very pet friendly. Good breakfast and a variety of items to choose from.  Close to many stores and things to do. Will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r212784220-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>212784220</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Dog poop everywhere,watch where you step! !!</t>
+  </si>
+  <si>
+    <t>Trash in the hallways dog poop everywhere.a manager. That doesn't come from behind the front desk to look around.the so called locked doors are broken.people sleeping in the hall ways and the manager. Has changed the so called breakfast. To some granola bars that are so hard I'm afraid. To eat them and some seed filled oranges. ..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r209478146-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>209478146</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>Good pet-friendly place to stay with a (small) kitchen</t>
+  </si>
+  <si>
+    <t>We were in the area for a few days to help relatives move into their new place.  The grounds are very nice, and it is very convenient when traveling with a dog.  The room was quiet and clean (we did not have maid service during our stay) and the bed and pillows were very comfortable.  On the "could be better list", the towels are extremely small, thin and scratchy, and the TWO forks and spoons provided were of such cheap quality, I wasn't sure how long they might last.  I did not try their breakfast, but it looked like a nice setup.  Excellent coffee place within walking distance: Koffee Klatch in the Target shopping center.  I would go back if we are in the area with our doggie.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in the area for a few days to help relatives move into their new place.  The grounds are very nice, and it is very convenient when traveling with a dog.  The room was quiet and clean (we did not have maid service during our stay) and the bed and pillows were very comfortable.  On the "could be better list", the towels are extremely small, thin and scratchy, and the TWO forks and spoons provided were of such cheap quality, I wasn't sure how long they might last.  I did not try their breakfast, but it looked like a nice setup.  Excellent coffee place within walking distance: Koffee Klatch in the Target shopping center.  I would go back if we are in the area with our doggie.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r208782793-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>208782793</t>
+  </si>
+  <si>
+    <t>06/03/2014</t>
+  </si>
+  <si>
+    <t>Customer service?</t>
+  </si>
+  <si>
+    <t>Only one person working front desk. Person left on hour long lunch / dinner break with no coverage / back-up / support. Why can't management back that person up during their employee breaks? Doesn't prove to me that this is the great customer service I've come to expect from this company, nor does it give me the warm feeling if there was an emergency and help was needed from the clerk...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r206736700-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>206736700</t>
+  </si>
+  <si>
+    <t>05/23/2014</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>My stay was so nice. Clean room breakfast in the morning what more can you ask for. I'd like to recognize the night front desk associate Andrew he was so helpful in finding me a great room since he noticed priceline gave me a smoking room and I didn't want that thank you again definitely recommending friends to stay here!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r205234851-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>205234851</t>
+  </si>
+  <si>
+    <t>05/12/2014</t>
+  </si>
+  <si>
+    <t>Great Place to Stay.</t>
+  </si>
+  <si>
+    <t>I've stayed here many times and have been extremely pleased with each stay.The whole staff always goes above and beyond to make you feel at home.The person who is just bad mouthing the staff must be the lady who walks around in a pink robe.On two occasions   this woman confronted me and wanted me to give bad reviews. A very low class person who is getting evicted.From the front staff to maintenance to the house keeping and even the management all are hard working nice professional people.Again nice place to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded May 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2014</t>
+  </si>
+  <si>
+    <t>I've stayed here many times and have been extremely pleased with each stay.The whole staff always goes above and beyond to make you feel at home.The person who is just bad mouthing the staff must be the lady who walks around in a pink robe.On two occasions   this woman confronted me and wanted me to give bad reviews. A very low class person who is getting evicted.From the front staff to maintenance to the house keeping and even the management all are hard working nice professional people.Again nice place to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r204691224-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>204691224</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>Worst manager! !!!!</t>
+  </si>
+  <si>
+    <t>This place is over priced which they keep raising.it is dirty and the so called maintance man does aabsolutely nothing! The manager and his buddy the maintace man meet in morning to talk loudly and very unkindly about the guests that are paying over $100 a night to stay in this dump.I will be very surprised if this dump stays open another year!!! The motel  6 across the street has been all redone and is a lot cheaper. Take my advice and run across the street don't walk !</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r201552861-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>201552861</t>
+  </si>
+  <si>
+    <t>04/17/2014</t>
+  </si>
+  <si>
+    <t>Pet friendly,quiet and clean</t>
+  </si>
+  <si>
+    <t>Very pleased with the staff and cleanliness of the room. Microwave, stove, refrigerator, and all dishes was a pleasant surprise.  Being pet friendly was a plus. We will definitely stay here again. A place to stay for an extended period of time or overnight  in the future. Easy on, easy off freeway and San Dimas is a cute town. Firm bed but comfy.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r196689954-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>196689954</t>
+  </si>
+  <si>
+    <t>03/08/2014</t>
+  </si>
+  <si>
+    <t>Would stay here any time!</t>
+  </si>
+  <si>
+    <t>Booked through Priceline.com, so I Wasn't really expecting a five-star resort, but the atmosphere and friendly staff were only the first surprise. The rooms were comfortable, tastefully decorated, and CLEAN! Some people are staying there long-term (thus the name), yet were super friendly and cordial. Dining and shopping close by. A great place to get away for some breathing room in a quiet setting.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r195004237-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>195004237</t>
+  </si>
+  <si>
+    <t>02/22/2014</t>
+  </si>
+  <si>
+    <t>Home away from Home...</t>
+  </si>
+  <si>
+    <t>I only live mins from this location, so my stay is mostly for some much needed RNR. Great parking, Great staff very friendly, helpful and efficient. I like staying on first floor closest to exit, because even tho I am a smoker I like the none smoking rooms but I like to be able to run out side real quick when I feel so they always try to accommodate when I stay. One of my favorite restraunts Applebees is only steps away from there.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded February 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2014</t>
+  </si>
+  <si>
+    <t>I only live mins from this location, so my stay is mostly for some much needed RNR. Great parking, Great staff very friendly, helpful and efficient. I like staying on first floor closest to exit, because even tho I am a smoker I like the none smoking rooms but I like to be able to run out side real quick when I feel so they always try to accommodate when I stay. One of my favorite restraunts Applebees is only steps away from there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r194801328-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>194801328</t>
+  </si>
+  <si>
+    <t>02/20/2014</t>
+  </si>
+  <si>
+    <t>Very great customer service!</t>
+  </si>
+  <si>
+    <t>I really appreciated the customer service!  Aurora, who checked us in, was very kind and friendly.  And when there was a problem with the booking (due to the website we booked through), the manager went out of his way to help us.  I would recommend this!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded February 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2014</t>
+  </si>
+  <si>
+    <t>I really appreciated the customer service!  Aurora, who checked us in, was very kind and friendly.  And when there was a problem with the booking (due to the website we booked through), the manager went out of his way to help us.  I would recommend this!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r185093479-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>185093479</t>
+  </si>
+  <si>
+    <t>11/18/2013</t>
+  </si>
+  <si>
+    <t>Excellent place!</t>
+  </si>
+  <si>
+    <t>Clean, quiet, comfortable and convenient. Fine for a short stay while on the road or if you have an event  in the area, but don't expect a resort! You get a full sized refrigerator, electric stove and kitchen stocked with basics. You can eat real food (although many chain restaurants are walking distance). Note you get housekeeping service only if you're here a week or more. This is more like a furnished apartment than a hotel!</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r184092158-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>184092158</t>
+  </si>
+  <si>
+    <t>11/08/2013</t>
+  </si>
+  <si>
+    <t>surrvey of service</t>
+  </si>
+  <si>
+    <t>We have received exceptional service since we were checked in .  The staff have treated us excellent. This hotel is very clean and homey. Everybody here from the management to the housekeepers  treat us very well. Thank you for this opportunity to voice our option.                                                                               Russell and Kelly Camp .MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded November 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2013</t>
+  </si>
+  <si>
+    <t>We have received exceptional service since we were checked in .  The staff have treated us excellent. This hotel is very clean and homey. Everybody here from the management to the housekeepers  treat us very well. Thank you for this opportunity to voice our option.                                                                               Russell and Kelly Camp .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r184081758-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>184081758</t>
+  </si>
+  <si>
+    <t>Love having a kitchen...</t>
+  </si>
+  <si>
+    <t>I've stayed here twice and I'll stay again. Once a year I come to the area for the cancer walk. Staying here is a bonus because I love to dance and Montana's is walking distance from this hotel. I would like to have an actual GLASS glass to have a cocktail in and an actual ice machine rather than ice cube trays would be great too.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I've stayed here twice and I'll stay again. Once a year I come to the area for the cancer walk. Staying here is a bonus because I love to dance and Montana's is walking distance from this hotel. I would like to have an actual GLASS glass to have a cocktail in and an actual ice machine rather than ice cube trays would be great too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r182561007-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>182561007</t>
+  </si>
+  <si>
+    <t>10/27/2013</t>
+  </si>
+  <si>
+    <t>Nice stay for a good price</t>
+  </si>
+  <si>
+    <t>Hotels in this region are pretty expensive.  This one was very inexpensive and worth every penny.  The workers are very friendly and the rooms were clean.  We stayed one night and the location is great to Puddingstone Lake.  The rooms are nothing special but if you are looking for an inexpensive place to stay then this is the place!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded October 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2013</t>
+  </si>
+  <si>
+    <t>Hotels in this region are pretty expensive.  This one was very inexpensive and worth every penny.  The workers are very friendly and the rooms were clean.  We stayed one night and the location is great to Puddingstone Lake.  The rooms are nothing special but if you are looking for an inexpensive place to stay then this is the place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r181865378-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>181865378</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>Excellent stay in San Dimas</t>
+  </si>
+  <si>
+    <t>Stayed here on family business. Very nice property and easy access to the 57,10 &amp; 210. We booked at the last minute for 7 nights. The rate for 7 nights was $75/night. Great price for the LA area. The grounds were well maintained and staff was very helpful. Never heard the 210 traffic from inside the room. Usually hotel internet speeds are too slow, but we had laptops and phones running simultaneously and had excellent connection. The grab and go breakfast was just that-enough to get wake you up and get going.We liked the kitchen set up-the full size fridge was a plus.The only suggestion I would make is to add more kitchenware. There were only 2 of everything. I know its set up for 2 people, but when you have family over or don't feel like washing, you're out of luck, unless you did like us and hit the store for paper plates and cups.Close to grocery stores,99cent only store,Walmart, Sams Club,etc.All in all it was a very pleasant stay. Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded October 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here on family business. Very nice property and easy access to the 57,10 &amp; 210. We booked at the last minute for 7 nights. The rate for 7 nights was $75/night. Great price for the LA area. The grounds were well maintained and staff was very helpful. Never heard the 210 traffic from inside the room. Usually hotel internet speeds are too slow, but we had laptops and phones running simultaneously and had excellent connection. The grab and go breakfast was just that-enough to get wake you up and get going.We liked the kitchen set up-the full size fridge was a plus.The only suggestion I would make is to add more kitchenware. There were only 2 of everything. I know its set up for 2 people, but when you have family over or don't feel like washing, you're out of luck, unless you did like us and hit the store for paper plates and cups.Close to grocery stores,99cent only store,Walmart, Sams Club,etc.All in all it was a very pleasant stay. Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r180056069-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>180056069</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>I will not stay in this hotel again.</t>
+  </si>
+  <si>
+    <t>Zero amenities, dirty toilet,outlets in room did not function correctly, the grab and go breakfast items not worth grabbing. This hotel is very over priced based on its lack of services and overall condition of the rooms. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded October 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2013</t>
+  </si>
+  <si>
+    <t>Zero amenities, dirty toilet,outlets in room did not function correctly, the grab and go breakfast items not worth grabbing. This hotel is very over priced based on its lack of services and overall condition of the rooms. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r174562961-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>174562961</t>
+  </si>
+  <si>
+    <t>08/28/2013</t>
+  </si>
+  <si>
+    <t>Not my idea of a "great place to stay"</t>
+  </si>
+  <si>
+    <t>The outside grounds are disgusting.  Cigarette butts and trash litter the parking lot, the dog walking area had so many cigarette butts on it I hated to take my dog out on it.  Yeah, it is great they let animals stay...but......   The room was like dungeon, very dimly lit.  The Grab and Go breakfast....not my idea of breakfast.  Cold water to make instant oatmeal, fruit the looked like the grocery store had already rejected it, and on the last day there weren't even any stale muffins left.  No housekeeping at all, no shampoo, not much of anything.  We left and moved down the street for the rest of our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded September 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2013</t>
+  </si>
+  <si>
+    <t>The outside grounds are disgusting.  Cigarette butts and trash litter the parking lot, the dog walking area had so many cigarette butts on it I hated to take my dog out on it.  Yeah, it is great they let animals stay...but......   The room was like dungeon, very dimly lit.  The Grab and Go breakfast....not my idea of breakfast.  Cold water to make instant oatmeal, fruit the looked like the grocery store had already rejected it, and on the last day there weren't even any stale muffins left.  No housekeeping at all, no shampoo, not much of anything.  We left and moved down the street for the rest of our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r171767549-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>171767549</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>I highly recommend staying at the Extended Stay</t>
+  </si>
+  <si>
+    <t>Made me feel more at home than any other hotel in the area. I didn't want to leave. If you want to stay somewhere that feels like being at home then The Extended Stay is your best choice. No other hotel has a full kitchen where you can cook your own food. Even walking through the lobby I could smell other customers cooking. That's awesome. m</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r171762369-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>171762369</t>
+  </si>
+  <si>
+    <t>Cozy, confi</t>
+  </si>
+  <si>
+    <t>I have recently stayed at Extended Stay America - San Dimas. It was above our expectations. Rooms were clean and neat, staff was kind and helpful. I would definitely recommend this hotel to couples and families.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r166521050-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>166521050</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>a home away from home</t>
+  </si>
+  <si>
+    <t>Had to work on a project for a couple of months in San Dimas and this was a perfect place for me . Had all I needed, a very comfortable bed, a small kitchen with microwave, ref, stove, sink, cabinets, two desks for my laptop, books and office stuff. Very clean and an air conditioner for the hot summer months of Southern CA. Good enough channels to choose from the free cable and free WiFi to surf the internet. The location is another good thing about it. Close to a lot of restaurants, a gas station, 99cents store, Cost Plus, Lowes. Short drive to other shopping areas and downtown San Dimas and near the 57 ramp. Very good housekeeping service if you stay for over a week but in the front desk you could easy exchange towels and ask for toiletries. Although not fancy enough, the laundry facility and breakfast to-go cart serve the purpose. Some rooms have been occupied by those with pets so if you are allergic to pet hair you may want to inquire first.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Had to work on a project for a couple of months in San Dimas and this was a perfect place for me . Had all I needed, a very comfortable bed, a small kitchen with microwave, ref, stove, sink, cabinets, two desks for my laptop, books and office stuff. Very clean and an air conditioner for the hot summer months of Southern CA. Good enough channels to choose from the free cable and free WiFi to surf the internet. The location is another good thing about it. Close to a lot of restaurants, a gas station, 99cents store, Cost Plus, Lowes. Short drive to other shopping areas and downtown San Dimas and near the 57 ramp. Very good housekeeping service if you stay for over a week but in the front desk you could easy exchange towels and ask for toiletries. Although not fancy enough, the laundry facility and breakfast to-go cart serve the purpose. Some rooms have been occupied by those with pets so if you are allergic to pet hair you may want to inquire first.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r165880427-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>165880427</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>Visiting for the weekend</t>
+  </si>
+  <si>
+    <t>I came out to San Dimas to visit a friend for the weekend.  He recommended the Extended Stay.  If your looking for fancy and elaborate place this is not for you.  If your looking for a clean, quiet place to stay, this IS the place for you.  Easy check in, clean spacious rooms, with  a comfortable bed. A grab and go breakfast, as they call it, coffee, instant oatmeal, and packaged muffins.  Again nothing fancy, but filled the need.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded July 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2013</t>
+  </si>
+  <si>
+    <t>I came out to San Dimas to visit a friend for the weekend.  He recommended the Extended Stay.  If your looking for fancy and elaborate place this is not for you.  If your looking for a clean, quiet place to stay, this IS the place for you.  Easy check in, clean spacious rooms, with  a comfortable bed. A grab and go breakfast, as they call it, coffee, instant oatmeal, and packaged muffins.  Again nothing fancy, but filled the need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r165212022-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>165212022</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>A return visit</t>
+  </si>
+  <si>
+    <t>Based upon our previous stay (see previous review) at the Extended Stay in San Dimas, and a return trip by my father, he again chose to stay at the Extended Stay ( this June) because of the quality of the service, and the excellent staff.  As we live out of town, when he comes to the San Dimas area to visit with friends, it is sometimes easier for him to stay over.  Knowing that he is safe is important, and having the Breakfast on the Go is a plus.  Thank you for your excellenceMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded June 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2013</t>
+  </si>
+  <si>
+    <t>Based upon our previous stay (see previous review) at the Extended Stay in San Dimas, and a return trip by my father, he again chose to stay at the Extended Stay ( this June) because of the quality of the service, and the excellent staff.  As we live out of town, when he comes to the San Dimas area to visit with friends, it is sometimes easier for him to stay over.  Knowing that he is safe is important, and having the Breakfast on the Go is a plus.  Thank you for your excellenceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r163516293-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>163516293</t>
+  </si>
+  <si>
+    <t>06/09/2013</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Stayed here for a night, definitely worth the price. Room was very clean and the staff was very pleasant. Offered great commodities, like the kitchen and nice big bathroom. Definitely hope to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded June 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for a night, definitely worth the price. Room was very clean and the staff was very pleasant. Offered great commodities, like the kitchen and nice big bathroom. Definitely hope to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r162585844-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>162585844</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>Great hotel with Excellent service</t>
+  </si>
+  <si>
+    <t>Front desk attendant Ron very helpful and very curtiouse. Great location with many family friendly restaurants. Great shopping centers nearby. Very convinent right off the freeway. Would definitely stay here again on my next trip. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded June 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2013</t>
+  </si>
+  <si>
+    <t>Front desk attendant Ron very helpful and very curtiouse. Great location with many family friendly restaurants. Great shopping centers nearby. Very convinent right off the freeway. Would definitely stay here again on my next trip. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r161843633-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>161843633</t>
+  </si>
+  <si>
+    <t>05/25/2013</t>
+  </si>
+  <si>
+    <t>Great stay/convenient location</t>
+  </si>
+  <si>
+    <t>We stayed here for a short combo business/vacation trip. Was in a great location very near freeway access, close (walkable) to restaurants and near the quaint old town. The room was very comfortable and the kitchenette was great (dishes, utensils, even dish soap was provided). A small continental breakfast was available and the staff was both friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded May 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here for a short combo business/vacation trip. Was in a great location very near freeway access, close (walkable) to restaurants and near the quaint old town. The room was very comfortable and the kitchenette was great (dishes, utensils, even dish soap was provided). A small continental breakfast was available and the staff was both friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r157372313-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>157372313</t>
+  </si>
+  <si>
+    <t>04/10/2013</t>
+  </si>
+  <si>
+    <t>Perfect Southern California Location with Awesome staff and well above average rooms</t>
+  </si>
+  <si>
+    <t>I stayed here from late January through early April. I travel constantly for work (see my house for days out of the year rarely see it a month total) and I have to say this hotel is one of my favorites. The scenery is nice and its about a block from any shopping you might want to do. Target, Ross, Grocery Stores, gas stations, and multiple food joints are just right around the corner. The staff here is always smiling and ready to help however they can and will tell you hello every single time you see them in the hallways. There is plenty of parking and its pet friendly too. The beds are comfortable, I stayed in a single bed room and it had two desks and a recliner too. My room included a stove top, full refrigerator, and a microwave. All in all considering all the hotels I have stayed at I rank this hotel in my top 5 favorites for sure. Next time you come to Southern California I recommend you call and book here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here from late January through early April. I travel constantly for work (see my house for days out of the year rarely see it a month total) and I have to say this hotel is one of my favorites. The scenery is nice and its about a block from any shopping you might want to do. Target, Ross, Grocery Stores, gas stations, and multiple food joints are just right around the corner. The staff here is always smiling and ready to help however they can and will tell you hello every single time you see them in the hallways. There is plenty of parking and its pet friendly too. The beds are comfortable, I stayed in a single bed room and it had two desks and a recliner too. My room included a stove top, full refrigerator, and a microwave. All in all considering all the hotels I have stayed at I rank this hotel in my top 5 favorites for sure. Next time you come to Southern California I recommend you call and book here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r156618732-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>156618732</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>10* Star Experience at Extended Stay America, SanDimas,California</t>
+  </si>
+  <si>
+    <t>My wife and I have had an EXCELLENT experience (2nd time) at Extended Stay America in San Dimas, California and are on our way to New York where we will stay at Extended Stay America pending the purchase of a home.Most importantly, ALL staff at Extended Stay America in SanDimas, CA are superior. Great service and never-ending professional and accommodating in every regard. We want to recognize all SanDimas staff, including: Ron, Iznacio ("Yggy"), April, Jean, Amber, and Barry as well as their maintenance &amp; housekeeping personnel for making our stay the most positive ofhotel experiences in America over the past 40 years!Recommend that anyone desiring a positive experience, do not overlook this Extended StayAmerica in SanDimas, CA. Frances &amp; AlanMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>James B, Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2013</t>
+  </si>
+  <si>
+    <t>My wife and I have had an EXCELLENT experience (2nd time) at Extended Stay America in San Dimas, California and are on our way to New York where we will stay at Extended Stay America pending the purchase of a home.Most importantly, ALL staff at Extended Stay America in SanDimas, CA are superior. Great service and never-ending professional and accommodating in every regard. We want to recognize all SanDimas staff, including: Ron, Iznacio ("Yggy"), April, Jean, Amber, and Barry as well as their maintenance &amp; housekeeping personnel for making our stay the most positive ofhotel experiences in America over the past 40 years!Recommend that anyone desiring a positive experience, do not overlook this Extended StayAmerica in SanDimas, CA. Frances &amp; AlanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r155014425-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>155014425</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Convenience, Value, and Kindness</t>
+  </si>
+  <si>
+    <t>I am always surprised when people post negative reviews about this hotel (I just read one).  Last year, during some pretty dark days (we had lost our home), we stayed for a month at the Extended Stay in San Dimas.  We arrived with our pets, booked 3 rooms, and each of us took some of our pets. During our stay, we were treated with the utmost courtesy and kindness by all members of the staff.  The breakfast on the go was wonderful and the laundry room a treat (no treks to the laundromat).  I didn't mind getting my own linen, and I preferred not having maid service (because we have some rescue cats that are loony with strangers). While we were able to find a new home, I will always, and I mean always, remember the staff of the Extended Stay in San Dimas.  That is why when my father had to be in town (we live quite a distance away), I booked his room, without hesitation at the Extended Stay in San Dimas.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>James B, Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded March 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2013</t>
+  </si>
+  <si>
+    <t>I am always surprised when people post negative reviews about this hotel (I just read one).  Last year, during some pretty dark days (we had lost our home), we stayed for a month at the Extended Stay in San Dimas.  We arrived with our pets, booked 3 rooms, and each of us took some of our pets. During our stay, we were treated with the utmost courtesy and kindness by all members of the staff.  The breakfast on the go was wonderful and the laundry room a treat (no treks to the laundromat).  I didn't mind getting my own linen, and I preferred not having maid service (because we have some rescue cats that are loony with strangers). While we were able to find a new home, I will always, and I mean always, remember the staff of the Extended Stay in San Dimas.  That is why when my father had to be in town (we live quite a distance away), I booked his room, without hesitation at the Extended Stay in San Dimas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r154447605-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>154447605</t>
+  </si>
+  <si>
+    <t>03/13/2013</t>
+  </si>
+  <si>
+    <t>A great place to get away!</t>
+  </si>
+  <si>
+    <t>I have thoroughly enjoyed my stay here at the Extended Stay America. For one, the price to quality comparison if fantastic. You have just about everything you could need within walking distance as well. Bowling, bars, grills, fast food, and shopping, are all conveniently located without the hassle of getting lost in a new place. The scenery is gorgeous! Snow tipped mountains in the distance and the smell of clean fresh air greats me every morning. The customer service is exactly what you expect from a professional establishment. Thank you to everyone on staff. I will be coming back as soon as the chance presents itself.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have thoroughly enjoyed my stay here at the Extended Stay America. For one, the price to quality comparison if fantastic. You have just about everything you could need within walking distance as well. Bowling, bars, grills, fast food, and shopping, are all conveniently located without the hassle of getting lost in a new place. The scenery is gorgeous! Snow tipped mountains in the distance and the smell of clean fresh air greats me every morning. The customer service is exactly what you expect from a professional establishment. Thank you to everyone on staff. I will be coming back as soon as the chance presents itself.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r153241918-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>153241918</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>Truly home away from home</t>
+  </si>
+  <si>
+    <t>My husband, daughter and I came to San Dimas for my surgery. This hotel was recommended to us by my surgal adviser. Booking this hotel was very easy and inexpensive! We were so surprised to see how beautiful it was inside and out. Our room was breath taking and had EVERY thing we needed. We felt like the rich.  The staff were all very kind and compassionate. After my surgery I was in more pain than expected, we did not have a wheelchair so the gentalman at the desk gave me his office chair so my husband could roll me to my room. This stay made a memorable time in our lives a happy one! Thank you Extended Stay and Staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded February 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2013</t>
+  </si>
+  <si>
+    <t>My husband, daughter and I came to San Dimas for my surgery. This hotel was recommended to us by my surgal adviser. Booking this hotel was very easy and inexpensive! We were so surprised to see how beautiful it was inside and out. Our room was breath taking and had EVERY thing we needed. We felt like the rich.  The staff were all very kind and compassionate. After my surgery I was in more pain than expected, we did not have a wheelchair so the gentalman at the desk gave me his office chair so my husband could roll me to my room. This stay made a memorable time in our lives a happy one! Thank you Extended Stay and Staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r153235102-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>153235102</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>Having stayed at numerous Extended Stay locations, I feel this is one of their best.  Great location &amp; setting, the staff is very helpful &amp; friendly!  The recent improvements to the hotel are much appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Having stayed at numerous Extended Stay locations, I feel this is one of their best.  Great location &amp; setting, the staff is very helpful &amp; friendly!  The recent improvements to the hotel are much appreciated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r151070174-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>151070174</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>Nicest Hotel in San Dimas</t>
+  </si>
+  <si>
+    <t>The Extended Stay is in a perfect location.  The hotel is near many eating establishments and shopping is nearby as well.  I'm a shopper so I really enjoy that the hotel is near so many stores to explore.  To name a few Target, Ross, Steinmart, TJ Maxx and Trader Joes.The Extended Stay staff - Jean, Jesse and Ron - are fantastic.  Customer Service is very important to me.  A+The hotel has a very nice atmosphere and I feel very comfortable when I'm there.Business Travelers - this is a great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded February 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2013</t>
+  </si>
+  <si>
+    <t>The Extended Stay is in a perfect location.  The hotel is near many eating establishments and shopping is nearby as well.  I'm a shopper so I really enjoy that the hotel is near so many stores to explore.  To name a few Target, Ross, Steinmart, TJ Maxx and Trader Joes.The Extended Stay staff - Jean, Jesse and Ron - are fantastic.  Customer Service is very important to me.  A+The hotel has a very nice atmosphere and I feel very comfortable when I'm there.Business Travelers - this is a great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r151052003-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>151052003</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>I have stayed at the Extended Stay in San Dimas now four times, every January for the last four years.  Each time it gets better and better.  They are constantly updating their rooms and hotel.  I have not had any problems there, the staff are friendly and helpful.  If you are needing a place to stay long term, check out Extended Stay, San Dimas!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at the Extended Stay in San Dimas now four times, every January for the last four years.  Each time it gets better and better.  They are constantly updating their rooms and hotel.  I have not had any problems there, the staff are friendly and helpful.  If you are needing a place to stay long term, check out Extended Stay, San Dimas!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r151047743-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>151047743</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised!</t>
+  </si>
+  <si>
+    <t>I was traveling alone and was nervous about privacy and safty. the hotel staff was very pleasant, courteous and most helpful! I was comforatable from the time i checked in to the time I left. It was a quick trip.  The location was fantastic because of all the restaurants in the area and the stores.  The overall look of the hotel was very clean and brite!  The best part was the quick breakfast that I was able to take with me uoon check out. Very nice touch!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>I was traveling alone and was nervous about privacy and safty. the hotel staff was very pleasant, courteous and most helpful! I was comforatable from the time i checked in to the time I left. It was a quick trip.  The location was fantastic because of all the restaurants in the area and the stores.  The overall look of the hotel was very clean and brite!  The best part was the quick breakfast that I was able to take with me uoon check out. Very nice touch!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r138613290-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>138613290</t>
+  </si>
+  <si>
+    <t>08/27/2012</t>
+  </si>
+  <si>
+    <t>Actually 4 1/2 points!</t>
+  </si>
+  <si>
+    <t>I, too, had a very good experience with this hotel. The staff (Ron, in particular) was very nice, helpful and accomodating. The grounds and whole place is neat and clean. My partner and I are smokers, and this is one of the few places that still have a smoking floor (3rd flr). If you are not a smoker-I suggest not taking a room on the 3rd floor! - But the room itself was neat and clean. The kitchenette is perfect, the bathroom spotless. Wi-fi worked. So why did I not give 5 points? - They don't have king size bed, smoking available but the queen bed they do have is comfortable. Not a problem for me at 5'3" but at 6'4", my sweetie would've preferred a king bed. And although newly renovated, one desk had a few dark spots (like from ink or hair dye) and a scratch. Also, no, there isnt a hair dryer in the room, &amp; only one ashtray. If we werent so exhausted, we could easily have asked for the hair dryer and an extra ashtray-&amp; I am sure we would've received them promptly, but these things were very minor and not really inconviniences. They have what they call a "Get up and Go" breakfast from 6-9:30 am although we slept in and didnt partake-so can't give you an opinion on it, but I think its nice they offer it. IHOP is right down the street...I, too, had a very good experience with this hotel. The staff (Ron, in particular) was very nice, helpful and accomodating. The grounds and whole place is neat and clean. My partner and I are smokers, and this is one of the few places that still have a smoking floor (3rd flr). If you are not a smoker-I suggest not taking a room on the 3rd floor! - But the room itself was neat and clean. The kitchenette is perfect, the bathroom spotless. Wi-fi worked. So why did I not give 5 points? - They don't have king size bed, smoking available but the queen bed they do have is comfortable. Not a problem for me at 5'3" but at 6'4", my sweetie would've preferred a king bed. And although newly renovated, one desk had a few dark spots (like from ink or hair dye) and a scratch. Also, no, there isnt a hair dryer in the room, &amp; only one ashtray. If we werent so exhausted, we could easily have asked for the hair dryer and an extra ashtray-&amp; I am sure we would've received them promptly, but these things were very minor and not really inconviniences. They have what they call a "Get up and Go" breakfast from 6-9:30 am although we slept in and didnt partake-so can't give you an opinion on it, but I think its nice they offer it. IHOP is right down the street and that is where we brunched at noon. I will have further work to do in San Dimas over the coming year, so I will continue to call this place my home away from home on nearly a weekly basis. And yes, I wouldn't hesitate to reccommend this very conviniently located, very reasonably priced and very welcoming hotel. THANK YOU RON &amp; EXTENDED STAYS!!! 2 more very pleased guests!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded September 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2012</t>
+  </si>
+  <si>
+    <t>I, too, had a very good experience with this hotel. The staff (Ron, in particular) was very nice, helpful and accomodating. The grounds and whole place is neat and clean. My partner and I are smokers, and this is one of the few places that still have a smoking floor (3rd flr). If you are not a smoker-I suggest not taking a room on the 3rd floor! - But the room itself was neat and clean. The kitchenette is perfect, the bathroom spotless. Wi-fi worked. So why did I not give 5 points? - They don't have king size bed, smoking available but the queen bed they do have is comfortable. Not a problem for me at 5'3" but at 6'4", my sweetie would've preferred a king bed. And although newly renovated, one desk had a few dark spots (like from ink or hair dye) and a scratch. Also, no, there isnt a hair dryer in the room, &amp; only one ashtray. If we werent so exhausted, we could easily have asked for the hair dryer and an extra ashtray-&amp; I am sure we would've received them promptly, but these things were very minor and not really inconviniences. They have what they call a "Get up and Go" breakfast from 6-9:30 am although we slept in and didnt partake-so can't give you an opinion on it, but I think its nice they offer it. IHOP is right down the street...I, too, had a very good experience with this hotel. The staff (Ron, in particular) was very nice, helpful and accomodating. The grounds and whole place is neat and clean. My partner and I are smokers, and this is one of the few places that still have a smoking floor (3rd flr). If you are not a smoker-I suggest not taking a room on the 3rd floor! - But the room itself was neat and clean. The kitchenette is perfect, the bathroom spotless. Wi-fi worked. So why did I not give 5 points? - They don't have king size bed, smoking available but the queen bed they do have is comfortable. Not a problem for me at 5'3" but at 6'4", my sweetie would've preferred a king bed. And although newly renovated, one desk had a few dark spots (like from ink or hair dye) and a scratch. Also, no, there isnt a hair dryer in the room, &amp; only one ashtray. If we werent so exhausted, we could easily have asked for the hair dryer and an extra ashtray-&amp; I am sure we would've received them promptly, but these things were very minor and not really inconviniences. They have what they call a "Get up and Go" breakfast from 6-9:30 am although we slept in and didnt partake-so can't give you an opinion on it, but I think its nice they offer it. IHOP is right down the street and that is where we brunched at noon. I will have further work to do in San Dimas over the coming year, so I will continue to call this place my home away from home on nearly a weekly basis. And yes, I wouldn't hesitate to reccommend this very conviniently located, very reasonably priced and very welcoming hotel. THANK YOU RON &amp; EXTENDED STAYS!!! 2 more very pleased guests!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r135849018-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>135849018</t>
+  </si>
+  <si>
+    <t>07/30/2012</t>
+  </si>
+  <si>
+    <t>Excellent hospitality at this hotel!!!!!</t>
+  </si>
+  <si>
+    <t>I called the hotel to see what the rates would be for my Turkish students, eight of them, and April gave me a great rate.  I was nervous that, because of such a good rate, they would short my students.  I live in San Dimas and I needed my students to be near me until they went to LAX.  We left the University where I have been teaching English and drove to the hotel not knowing what we would find as we were given the best rate in San Dimas and being that I live there, I do not stay in hotels.  OMG!!!  The rooms were beautiful, the staff was helpful, curtious and respectul to my students, and their stay at this hotel was a memorable and happy one!   Thank you Extended Stay America!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded August 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2012</t>
+  </si>
+  <si>
+    <t>I called the hotel to see what the rates would be for my Turkish students, eight of them, and April gave me a great rate.  I was nervous that, because of such a good rate, they would short my students.  I live in San Dimas and I needed my students to be near me until they went to LAX.  We left the University where I have been teaching English and drove to the hotel not knowing what we would find as we were given the best rate in San Dimas and being that I live there, I do not stay in hotels.  OMG!!!  The rooms were beautiful, the staff was helpful, curtious and respectul to my students, and their stay at this hotel was a memorable and happy one!   Thank you Extended Stay America!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r135578415-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>135578415</t>
+  </si>
+  <si>
+    <t>07/27/2012</t>
+  </si>
+  <si>
+    <t>A Great No Hassle Experience</t>
+  </si>
+  <si>
+    <t>My wife and I highly recommend the San Dimas Extended Stay America we called "home" during a stressful escrow while selling our home and when our future residence would be ready.  The staff were very friendly and extremely helpful.  The room was laid out well, clean, comfortable and quiet and had been updated several month's earlier.  Dollar wise, this was a bargain for the accommodations and the courteous staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I highly recommend the San Dimas Extended Stay America we called "home" during a stressful escrow while selling our home and when our future residence would be ready.  The staff were very friendly and extremely helpful.  The room was laid out well, clean, comfortable and quiet and had been updated several month's earlier.  Dollar wise, this was a bargain for the accommodations and the courteous staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r127699729-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>127699729</t>
+  </si>
+  <si>
+    <t>04/11/2012</t>
+  </si>
+  <si>
+    <t>Fantastic Facility Newly Rennovated with a Great Staff. Excellent value.</t>
+  </si>
+  <si>
+    <t>I run my own business and work far from home.  I am usually gone for 2 to 4 weeks at a time and have been staying at the San Dimas Extended Stay America since August 2011. Being away from home for such a long period of time is not easy. I have to say this has become my second home. The entire staff are always attentive, courteous, and do  whatever it takes when they can to ensure my stay is a comfortable one. The entire facility is going thru a complete renovation from new asphalt in the parking lot, exterior paint to the interior remodel with new flat screens, new mattresses and bedding to the down feather pillows. I would recommend this facility to anyone who needs accommodations with a kitchenette.  I wanted to take this opportunity to let the the entire staff know how much all their hard work is appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - San Dimas, responded to this reviewResponded July 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2012</t>
+  </si>
+  <si>
+    <t>I run my own business and work far from home.  I am usually gone for 2 to 4 weeks at a time and have been staying at the San Dimas Extended Stay America since August 2011. Being away from home for such a long period of time is not easy. I have to say this has become my second home. The entire staff are always attentive, courteous, and do  whatever it takes when they can to ensure my stay is a comfortable one. The entire facility is going thru a complete renovation from new asphalt in the parking lot, exterior paint to the interior remodel with new flat screens, new mattresses and bedding to the down feather pillows. I would recommend this facility to anyone who needs accommodations with a kitchenette.  I wanted to take this opportunity to let the the entire staff know how much all their hard work is appreciated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r127671150-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>127671150</t>
+  </si>
+  <si>
+    <t>My Visit to Extended Stay</t>
+  </si>
+  <si>
+    <t>I have stayed here seveal times and always found it to be a great place to stay while conducting my business.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed here seveal times and always found it to be a great place to stay while conducting my business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r126712883-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>126712883</t>
+  </si>
+  <si>
+    <t>03/26/2012</t>
+  </si>
+  <si>
+    <t>Suprisingly Great</t>
+  </si>
+  <si>
+    <t>I usually read reviews prior to staying at any hotel (or resteraunts). I stayed here a few months back and they were renovating, But the room I had already looked pretty renovated. Flat screen tv, nice walkways. This hotel was definitely designed witha beautiful exterior walkway. I have to stay the reviews here couldnt be less accurate. The staff, especially Sena and Ron, were exceptional. When a guest was being a bit noisey, Sena called them promptly and they stopped right away.Thanks for the stay, and happy to do the review</t>
+  </si>
+  <si>
+    <t>December 2011</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2571,5584 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>144</v>
+      </c>
+      <c r="X12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>160</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>169</v>
+      </c>
+      <c r="X15" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" t="s">
+        <v>134</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>195</v>
+      </c>
+      <c r="X18" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>199</v>
+      </c>
+      <c r="J19" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L19" t="s">
+        <v>202</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>194</v>
+      </c>
+      <c r="O19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>204</v>
+      </c>
+      <c r="J20" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>208</v>
+      </c>
+      <c r="O20" t="s">
+        <v>209</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>218</v>
+      </c>
+      <c r="O21" t="s">
+        <v>134</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>218</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>225</v>
+      </c>
+      <c r="X22" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>229</v>
+      </c>
+      <c r="J23" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" t="s">
+        <v>232</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>233</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>239</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>242</v>
+      </c>
+      <c r="J25" t="s">
+        <v>243</v>
+      </c>
+      <c r="K25" t="s">
+        <v>244</v>
+      </c>
+      <c r="L25" t="s">
+        <v>245</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>246</v>
+      </c>
+      <c r="X25" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J26" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" t="s">
+        <v>252</v>
+      </c>
+      <c r="L26" t="s">
+        <v>253</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>254</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" t="s">
+        <v>258</v>
+      </c>
+      <c r="K27" t="s">
+        <v>259</v>
+      </c>
+      <c r="L27" t="s">
+        <v>260</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>261</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>267</v>
+      </c>
+      <c r="O28" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>268</v>
+      </c>
+      <c r="X28" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>271</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>275</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>276</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>277</v>
+      </c>
+      <c r="X29" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>281</v>
+      </c>
+      <c r="J30" t="s">
+        <v>282</v>
+      </c>
+      <c r="K30" t="s">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>284</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>276</v>
+      </c>
+      <c r="O30" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>285</v>
+      </c>
+      <c r="X30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" t="s">
+        <v>290</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L32" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>299</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>300</v>
+      </c>
+      <c r="X32" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>304</v>
+      </c>
+      <c r="J33" t="s">
+        <v>296</v>
+      </c>
+      <c r="K33" t="s">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s">
+        <v>306</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>299</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>300</v>
+      </c>
+      <c r="X33" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>309</v>
+      </c>
+      <c r="J34" t="s">
+        <v>310</v>
+      </c>
+      <c r="K34" t="s">
+        <v>311</v>
+      </c>
+      <c r="L34" t="s">
+        <v>312</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>313</v>
+      </c>
+      <c r="O34" t="s">
+        <v>79</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>314</v>
+      </c>
+      <c r="X34" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>317</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>318</v>
+      </c>
+      <c r="J35" t="s">
+        <v>319</v>
+      </c>
+      <c r="K35" t="s">
+        <v>320</v>
+      </c>
+      <c r="L35" t="s">
+        <v>321</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>322</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>323</v>
+      </c>
+      <c r="X35" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>326</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>327</v>
+      </c>
+      <c r="J36" t="s">
+        <v>328</v>
+      </c>
+      <c r="K36" t="s">
+        <v>329</v>
+      </c>
+      <c r="L36" t="s">
+        <v>330</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>331</v>
+      </c>
+      <c r="O36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>332</v>
+      </c>
+      <c r="X36" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>335</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>336</v>
+      </c>
+      <c r="J37" t="s">
+        <v>337</v>
+      </c>
+      <c r="K37" t="s">
+        <v>338</v>
+      </c>
+      <c r="L37" t="s">
+        <v>339</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>331</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>340</v>
+      </c>
+      <c r="X37" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>343</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>344</v>
+      </c>
+      <c r="J38" t="s">
+        <v>345</v>
+      </c>
+      <c r="K38" t="s">
+        <v>346</v>
+      </c>
+      <c r="L38" t="s">
+        <v>347</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>348</v>
+      </c>
+      <c r="O38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>349</v>
+      </c>
+      <c r="X38" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>352</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>353</v>
+      </c>
+      <c r="J39" t="s">
+        <v>354</v>
+      </c>
+      <c r="K39" t="s">
+        <v>355</v>
+      </c>
+      <c r="L39" t="s">
+        <v>356</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>357</v>
+      </c>
+      <c r="O39" t="s">
+        <v>89</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>358</v>
+      </c>
+      <c r="X39" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>361</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>362</v>
+      </c>
+      <c r="J40" t="s">
+        <v>363</v>
+      </c>
+      <c r="K40" t="s">
+        <v>364</v>
+      </c>
+      <c r="L40" t="s">
+        <v>365</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>366</v>
+      </c>
+      <c r="X40" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>369</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>370</v>
+      </c>
+      <c r="J41" t="s">
+        <v>371</v>
+      </c>
+      <c r="K41" t="s">
+        <v>372</v>
+      </c>
+      <c r="L41" t="s">
+        <v>373</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>374</v>
+      </c>
+      <c r="O41" t="s">
+        <v>89</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>375</v>
+      </c>
+      <c r="X41" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>378</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>379</v>
+      </c>
+      <c r="J42" t="s">
+        <v>380</v>
+      </c>
+      <c r="K42" t="s">
+        <v>381</v>
+      </c>
+      <c r="L42" t="s">
+        <v>382</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>383</v>
+      </c>
+      <c r="O42" t="s">
+        <v>89</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>385</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>386</v>
+      </c>
+      <c r="J43" t="s">
+        <v>387</v>
+      </c>
+      <c r="K43" t="s">
+        <v>388</v>
+      </c>
+      <c r="L43" t="s">
+        <v>389</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>383</v>
+      </c>
+      <c r="O43" t="s">
+        <v>134</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>390</v>
+      </c>
+      <c r="X43" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>393</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>394</v>
+      </c>
+      <c r="J44" t="s">
+        <v>395</v>
+      </c>
+      <c r="K44" t="s">
+        <v>396</v>
+      </c>
+      <c r="L44" t="s">
+        <v>397</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>398</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>399</v>
+      </c>
+      <c r="J45" t="s">
+        <v>400</v>
+      </c>
+      <c r="K45" t="s">
+        <v>401</v>
+      </c>
+      <c r="L45" t="s">
+        <v>402</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>403</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>404</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>405</v>
+      </c>
+      <c r="J46" t="s">
+        <v>406</v>
+      </c>
+      <c r="K46" t="s">
+        <v>407</v>
+      </c>
+      <c r="L46" t="s">
+        <v>408</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>409</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>410</v>
+      </c>
+      <c r="J47" t="s">
+        <v>411</v>
+      </c>
+      <c r="K47" t="s">
+        <v>412</v>
+      </c>
+      <c r="L47" t="s">
+        <v>413</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>403</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>415</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>416</v>
+      </c>
+      <c r="J48" t="s">
+        <v>417</v>
+      </c>
+      <c r="K48" t="s">
+        <v>418</v>
+      </c>
+      <c r="L48" t="s">
+        <v>419</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>420</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>421</v>
+      </c>
+      <c r="J49" t="s">
+        <v>422</v>
+      </c>
+      <c r="K49" t="s">
+        <v>423</v>
+      </c>
+      <c r="L49" t="s">
+        <v>424</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>425</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>426</v>
+      </c>
+      <c r="J50" t="s">
+        <v>427</v>
+      </c>
+      <c r="K50" t="s">
+        <v>428</v>
+      </c>
+      <c r="L50" t="s">
+        <v>429</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>430</v>
+      </c>
+      <c r="X50" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>433</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>434</v>
+      </c>
+      <c r="J51" t="s">
+        <v>435</v>
+      </c>
+      <c r="K51" t="s">
+        <v>436</v>
+      </c>
+      <c r="L51" t="s">
+        <v>437</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>438</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>439</v>
+      </c>
+      <c r="J52" t="s">
+        <v>440</v>
+      </c>
+      <c r="K52" t="s">
+        <v>441</v>
+      </c>
+      <c r="L52" t="s">
+        <v>442</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>443</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>444</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>445</v>
+      </c>
+      <c r="J53" t="s">
+        <v>446</v>
+      </c>
+      <c r="K53" t="s">
+        <v>447</v>
+      </c>
+      <c r="L53" t="s">
+        <v>448</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>449</v>
+      </c>
+      <c r="O53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>450</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>451</v>
+      </c>
+      <c r="J54" t="s">
+        <v>452</v>
+      </c>
+      <c r="K54" t="s">
+        <v>453</v>
+      </c>
+      <c r="L54" t="s">
+        <v>454</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>455</v>
+      </c>
+      <c r="O54" t="s">
+        <v>79</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>456</v>
+      </c>
+      <c r="X54" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>459</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>460</v>
+      </c>
+      <c r="J55" t="s">
+        <v>461</v>
+      </c>
+      <c r="K55" t="s">
+        <v>462</v>
+      </c>
+      <c r="L55" t="s">
+        <v>463</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>455</v>
+      </c>
+      <c r="O55" t="s">
+        <v>134</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>464</v>
+      </c>
+      <c r="X55" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>467</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>468</v>
+      </c>
+      <c r="J56" t="s">
+        <v>469</v>
+      </c>
+      <c r="K56" t="s">
+        <v>470</v>
+      </c>
+      <c r="L56" t="s">
+        <v>471</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>472</v>
+      </c>
+      <c r="O56" t="s">
+        <v>79</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>473</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>474</v>
+      </c>
+      <c r="J57" t="s">
+        <v>475</v>
+      </c>
+      <c r="K57" t="s">
+        <v>476</v>
+      </c>
+      <c r="L57" t="s">
+        <v>477</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>472</v>
+      </c>
+      <c r="O57" t="s">
+        <v>134</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>478</v>
+      </c>
+      <c r="X57" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>481</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>482</v>
+      </c>
+      <c r="J58" t="s">
+        <v>475</v>
+      </c>
+      <c r="K58" t="s">
+        <v>483</v>
+      </c>
+      <c r="L58" t="s">
+        <v>484</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>485</v>
+      </c>
+      <c r="O58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>478</v>
+      </c>
+      <c r="X58" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>487</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>488</v>
+      </c>
+      <c r="J59" t="s">
+        <v>489</v>
+      </c>
+      <c r="K59" t="s">
+        <v>490</v>
+      </c>
+      <c r="L59" t="s">
+        <v>491</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>472</v>
+      </c>
+      <c r="O59" t="s">
+        <v>209</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>492</v>
+      </c>
+      <c r="X59" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>495</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>496</v>
+      </c>
+      <c r="J60" t="s">
+        <v>497</v>
+      </c>
+      <c r="K60" t="s">
+        <v>498</v>
+      </c>
+      <c r="L60" t="s">
+        <v>499</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>472</v>
+      </c>
+      <c r="O60" t="s">
+        <v>134</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>500</v>
+      </c>
+      <c r="X60" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>503</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>504</v>
+      </c>
+      <c r="J61" t="s">
+        <v>505</v>
+      </c>
+      <c r="K61" t="s">
+        <v>506</v>
+      </c>
+      <c r="L61" t="s">
+        <v>507</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>508</v>
+      </c>
+      <c r="X61" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>511</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>512</v>
+      </c>
+      <c r="J62" t="s">
+        <v>513</v>
+      </c>
+      <c r="K62" t="s">
+        <v>514</v>
+      </c>
+      <c r="L62" t="s">
+        <v>515</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>516</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>517</v>
+      </c>
+      <c r="X62" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>520</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>521</v>
+      </c>
+      <c r="J63" t="s">
+        <v>522</v>
+      </c>
+      <c r="K63" t="s">
+        <v>523</v>
+      </c>
+      <c r="L63" t="s">
+        <v>524</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>525</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>526</v>
+      </c>
+      <c r="J64" t="s">
+        <v>522</v>
+      </c>
+      <c r="K64" t="s">
+        <v>527</v>
+      </c>
+      <c r="L64" t="s">
+        <v>528</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>529</v>
+      </c>
+      <c r="O64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>530</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>531</v>
+      </c>
+      <c r="J65" t="s">
+        <v>532</v>
+      </c>
+      <c r="K65" t="s">
+        <v>533</v>
+      </c>
+      <c r="L65" t="s">
+        <v>534</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>535</v>
+      </c>
+      <c r="O65" t="s">
+        <v>134</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>537</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>538</v>
+      </c>
+      <c r="J66" t="s">
+        <v>539</v>
+      </c>
+      <c r="K66" t="s">
+        <v>540</v>
+      </c>
+      <c r="L66" t="s">
+        <v>541</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>535</v>
+      </c>
+      <c r="O66" t="s">
+        <v>79</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>542</v>
+      </c>
+      <c r="X66" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>545</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>546</v>
+      </c>
+      <c r="J67" t="s">
+        <v>547</v>
+      </c>
+      <c r="K67" t="s">
+        <v>548</v>
+      </c>
+      <c r="L67" t="s">
+        <v>549</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>535</v>
+      </c>
+      <c r="O67" t="s">
+        <v>209</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>550</v>
+      </c>
+      <c r="X67" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>553</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>554</v>
+      </c>
+      <c r="J68" t="s">
+        <v>555</v>
+      </c>
+      <c r="K68" t="s">
+        <v>556</v>
+      </c>
+      <c r="L68" t="s">
+        <v>557</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>558</v>
+      </c>
+      <c r="X68" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>561</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>562</v>
+      </c>
+      <c r="J69" t="s">
+        <v>563</v>
+      </c>
+      <c r="K69" t="s">
+        <v>564</v>
+      </c>
+      <c r="L69" t="s">
+        <v>565</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>566</v>
+      </c>
+      <c r="X69" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>569</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>570</v>
+      </c>
+      <c r="J70" t="s">
+        <v>571</v>
+      </c>
+      <c r="K70" t="s">
+        <v>572</v>
+      </c>
+      <c r="L70" t="s">
+        <v>573</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>574</v>
+      </c>
+      <c r="O70" t="s">
+        <v>134</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>575</v>
+      </c>
+      <c r="X70" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>578</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>579</v>
+      </c>
+      <c r="J71" t="s">
+        <v>580</v>
+      </c>
+      <c r="K71" t="s">
+        <v>581</v>
+      </c>
+      <c r="L71" t="s">
+        <v>582</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>584</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>585</v>
+      </c>
+      <c r="J72" t="s">
+        <v>586</v>
+      </c>
+      <c r="K72" t="s">
+        <v>587</v>
+      </c>
+      <c r="L72" t="s">
+        <v>588</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>589</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>590</v>
+      </c>
+      <c r="X72" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>593</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>594</v>
+      </c>
+      <c r="J73" t="s">
+        <v>595</v>
+      </c>
+      <c r="K73" t="s">
+        <v>596</v>
+      </c>
+      <c r="L73" t="s">
+        <v>597</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>598</v>
+      </c>
+      <c r="O73" t="s">
+        <v>134</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>599</v>
+      </c>
+      <c r="X73" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>602</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>603</v>
+      </c>
+      <c r="J74" t="s">
+        <v>604</v>
+      </c>
+      <c r="K74" t="s">
+        <v>605</v>
+      </c>
+      <c r="L74" t="s">
+        <v>606</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>598</v>
+      </c>
+      <c r="O74" t="s">
+        <v>134</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>599</v>
+      </c>
+      <c r="X74" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>608</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>609</v>
+      </c>
+      <c r="J75" t="s">
+        <v>610</v>
+      </c>
+      <c r="K75" t="s">
+        <v>611</v>
+      </c>
+      <c r="L75" t="s">
+        <v>612</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>613</v>
+      </c>
+      <c r="X75" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>616</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>617</v>
+      </c>
+      <c r="J76" t="s">
+        <v>610</v>
+      </c>
+      <c r="K76" t="s">
+        <v>618</v>
+      </c>
+      <c r="L76" t="s">
+        <v>619</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>620</v>
+      </c>
+      <c r="O76" t="s">
+        <v>134</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>613</v>
+      </c>
+      <c r="X76" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>622</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>623</v>
+      </c>
+      <c r="J77" t="s">
+        <v>624</v>
+      </c>
+      <c r="K77" t="s">
+        <v>625</v>
+      </c>
+      <c r="L77" t="s">
+        <v>626</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>620</v>
+      </c>
+      <c r="O77" t="s">
+        <v>134</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>627</v>
+      </c>
+      <c r="X77" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>630</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>631</v>
+      </c>
+      <c r="J78" t="s">
+        <v>624</v>
+      </c>
+      <c r="K78" t="s">
+        <v>632</v>
+      </c>
+      <c r="L78" t="s">
+        <v>633</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>620</v>
+      </c>
+      <c r="O78" t="s">
+        <v>134</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>627</v>
+      </c>
+      <c r="X78" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>635</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>636</v>
+      </c>
+      <c r="J79" t="s">
+        <v>624</v>
+      </c>
+      <c r="K79" t="s">
+        <v>637</v>
+      </c>
+      <c r="L79" t="s">
+        <v>638</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>639</v>
+      </c>
+      <c r="O79" t="s">
+        <v>134</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>627</v>
+      </c>
+      <c r="X79" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>641</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>642</v>
+      </c>
+      <c r="J80" t="s">
+        <v>643</v>
+      </c>
+      <c r="K80" t="s">
+        <v>644</v>
+      </c>
+      <c r="L80" t="s">
+        <v>645</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>646</v>
+      </c>
+      <c r="O80" t="s">
+        <v>134</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>647</v>
+      </c>
+      <c r="X80" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>650</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>651</v>
+      </c>
+      <c r="J81" t="s">
+        <v>652</v>
+      </c>
+      <c r="K81" t="s">
+        <v>653</v>
+      </c>
+      <c r="L81" t="s">
+        <v>654</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>655</v>
+      </c>
+      <c r="O81" t="s">
+        <v>134</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>656</v>
+      </c>
+      <c r="X81" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>659</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>660</v>
+      </c>
+      <c r="J82" t="s">
+        <v>661</v>
+      </c>
+      <c r="K82" t="s">
+        <v>662</v>
+      </c>
+      <c r="L82" t="s">
+        <v>663</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>655</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>656</v>
+      </c>
+      <c r="X82" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>665</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>666</v>
+      </c>
+      <c r="J83" t="s">
+        <v>667</v>
+      </c>
+      <c r="K83" t="s">
+        <v>668</v>
+      </c>
+      <c r="L83" t="s">
+        <v>669</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>670</v>
+      </c>
+      <c r="O83" t="s">
+        <v>134</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>671</v>
+      </c>
+      <c r="X83" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>674</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>675</v>
+      </c>
+      <c r="J84" t="s">
+        <v>667</v>
+      </c>
+      <c r="K84" t="s">
+        <v>676</v>
+      </c>
+      <c r="L84" t="s">
+        <v>677</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>670</v>
+      </c>
+      <c r="O84" t="s">
+        <v>134</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>671</v>
+      </c>
+      <c r="X84" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>37799</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>679</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>680</v>
+      </c>
+      <c r="J85" t="s">
+        <v>681</v>
+      </c>
+      <c r="K85" t="s">
+        <v>682</v>
+      </c>
+      <c r="L85" t="s">
+        <v>683</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>684</v>
+      </c>
+      <c r="O85" t="s">
+        <v>79</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>683</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_261.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_261.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="766">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>adriag12356</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>The Extended Stay America is a wonderful place to stay, it is super convenient to walk to all of the downtown shopping areas, dining &amp; freeways. The staff are very helpful &amp; friendly. Daniel at the front desk has gone above &amp; beyond to make sure that my stay was perfect. I would definitely recommend this hotel to anyone traveling in the area looking for a good nights rest &amp; a comfortable place to stay.More</t>
   </si>
   <si>
+    <t>jenesi2006</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r574385236-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>The overall experience in the room was not satisfying the cabinets were worn out the trash was never thrown out the chairs are dirty with stains tje windows are so nasty with spider webs and top it off the continental breakfast was disappointing they gave coffee with muffin that's all!!!! never coming again i paid alot for this type of room not worth it at allMore</t>
   </si>
   <si>
+    <t>cera304</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r574086339-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>The staff at the hotel is very polite and very accommodating would definitely recommend this hotel if you plan on staying in the San Dimas area... Big plus the hotel is pet friendly as well as smoking rooms More</t>
   </si>
   <si>
+    <t>O7816EOcathys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r577786372-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>I would recommend this place. They are so nice and caring,  They go out of their way to help you with anything. I just wish they had a pool, but I do have to say they have a dogie area for your four legged kids and they are great with the m.More</t>
   </si>
   <si>
+    <t>SkipinTowne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r568110645-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>We stay there when we visit California every year. They have always gone out of there way to make sure we have a great stay. The manager Dennice was so nice to us and very helpful. She even comped us one night because we did not want to be near the car wash but there were no other rooms available. It turned out to be no problem because we didn't really hear much noise anyway. We will stay there again also because it is very close to every thing we needed to be near.More</t>
   </si>
   <si>
+    <t>Stephen W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r567718045-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>Not run down at all but not very clean. A few debris items by the front door. The elevator floor appeared to be wooden but hadn’t been properly cleaned in some time. Leaves on the carpet as you come off the elevator on floor 3. Stayed there for days so obviously vacuuming is not a priority. Asked where the ice machine was and was told they have none. Found the previous guests’ leftovers in my fridge so they don’t check there either. The bed left a lot to be desired and my pillow I affectionately nicknamed “the pancake.” More</t>
   </si>
   <si>
+    <t>TBM1CAMtns</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r540423699-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>Extended Stay should be embarrassed. The room was clean but so old and need of updating. Stephanie was fantastic but you can only do so much with such outdated decor. I’m talking 70s type and despite being clean, even smelled old. I’ve stayed at other Extended Stay hotels and was frankly shocked. More</t>
   </si>
   <si>
+    <t>Ashley P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r536135854-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -378,6 +402,9 @@
     <t>I have stayed at extended stay type properties but never this particular brand. House keeping is only scheduled to come to your room once a week. We checked in on a Tuesday and checked out 8 days later on a Wednesday. When we checked in they told us housekeeping wouldn't be there until Tuesday, the day before we checked out which seemed strange. Also we  were told we would have to call every time we needed anything as far as cooking utensils. We called for forks a few times and had to wait to eat 20 minutes until they brought them. Very inconvenient. We called for plates one day and never received them, we just gave up and made do. We got interrogated half way through our stay when we asked for more toilet paper. I'm assuming this property has issues with theft because they gave us a hard time with every little tiny thing we asked for. We wanted an extra towel and were told we could not have them until we brought the dirtying down.  Also breakfast is non existent and disappointing. Coffee bar with oatmeal packets and granola bar does not a free breakfast make. Will not stay here in the future if we can help it. More</t>
   </si>
   <si>
+    <t>Johnnie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r529602120-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -402,6 +429,9 @@
     <t>Taking copies of my personal ID is not right, it is to easy for credit card fraud. Your credit card machine was not working and I offered to pay cash. The manager was called and said I could not pay cash They said either let the attendant copy my ID or leave and find another hotel it was after 10:00 pmMore</t>
   </si>
   <si>
+    <t>Paul B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r507979390-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -432,6 +462,9 @@
     <t>The rooms here are clean, spacious and quiet. The staff really goes out of their way to make you feel like your at home. The grounds are always clean, well lit and you really do feel safe here.   I very much enjoy the stay here...but they really need to work on their Internet speed and Cable package, that is the only black eye to a wonderful Hotel!More</t>
   </si>
   <si>
+    <t>557berniea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r506952082-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -459,6 +492,9 @@
     <t>Here because we have a pet. Good location, rooms okay in size and condition. All good ends there. A traveler feels like an outsider here as most of the 'guests' live here. Loose dogs, children and a bit of all kinds wander 24/7. The 'staff' are so used to it that they do not seem to notice anything. Overflowing trashcans, Homeless sleeping near the pet green area - quite sketchy. I have stayed here MANY times and though I was never thrilled - I put up with it due to location for my needs. This place is complacent with who lives here and how they are treated. Clean it up people and actually care. It is a hospitality business. Isn't it? KEEP LOOKING!!More</t>
   </si>
   <si>
+    <t>359elfridas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r504322843-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -483,6 +519,9 @@
     <t>Would not stay again due to the fact their accommodations that they advertise you do not get, and your made to feel that it's your fault because their fully booked.  Have told family and friends about our experience.More</t>
   </si>
   <si>
+    <t>C H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r493291612-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -510,6 +549,9 @@
     <t>It's clear that the only cleaning is a perfunctory vacuum or mopping as there is scummy buildup in every corner. There are kitchens in the room but our room (309) was not equipped. All the cupboards were completely empty. There was no coffee pot in the room. Fan in the bathroom doesn't work. The bathroom door doesn't clear the kitchen counter and is annoying, especially since the kitchen is useless. No staff overnight so tough luck if you want a wifi password at 6:30 a.m. Breakfast is disgusting. Prepackaged tiny old muffins and granola bars. That's the entire offerings for breakfast. Front desk staff was responsive and professional. was responsive and professional. More</t>
   </si>
   <si>
+    <t>Y5825KLcynthias</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r491043744-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -534,6 +576,9 @@
     <t>We recently stayed at this property based on the fact that it has a full kitchen and we have dietary restrictions that require us to prepare all of our own meals.  Consequently the kitchen was very important.  We found that the microwave was not particularly clean and one of the stove burners didn't work.  Additionally, the tub/shower in both rooms we stayed in literally ran, not dripped, water.  Our last night, the tub spout completely broke and we couldn't shower at all.  This was reported the next morning.  There was also a urine smell in one corner of the room - this is a dog friendly property.  Lastly, the front walkways to the lobby were covered in cigarette butts and people were smoking near the entrance.  I'll close on a good note - the front desk staff were incredibly friendly and considerate-they made every effort to accommodate any request we made.More</t>
   </si>
   <si>
+    <t>maxp373</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r490537366-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -558,6 +603,9 @@
     <t>Good location - great staff - pet friendly - minimum services.  They claim they are a home away from home - it might be that.  If you're looking for a hotel experience, then this isn't the place for you.More</t>
   </si>
   <si>
+    <t>harotheman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r470681543-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -585,6 +633,9 @@
     <t>I must admit that I was not expecting what I got.  At this hotel you are not just a paying number, but a person due respect, and courtesy.  Everyone from the maids to the front desk took a moment to speak with a smile to both myself and my family.  From their expressions we believe each one loves their jobs and helping their customers.  This type of attitude only comes from good management and training.  The employees I wish to mention are the following:  Kyra, Ron, Ygnacio, Liz, and my favorite maid Lora.The rooms were cleanly maintained, and if I had a problem it was immediately taken care of.  The front desk personnel are fantastic and I noticed them go out of their way to help everyone that visited.  I stood around and watched how professionally they handled problems.  One at a time regardless of the attitude of the customer got personal service.The location is fantastic.  Restaurants of all types within walking distance, exercise facility close by, and the environment is safe for families.  I highly recommend this hotel.  If I were to comment on the negative issues I found I would be hard pressed, and I have travelled all over the world.  Stayed at thousands of hotels and paid for services that were not delivered as well as it was here.More</t>
   </si>
   <si>
+    <t>methuenma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r468117957-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -612,6 +663,9 @@
     <t>I've stayed here last year as well as this year.  It is right off the highway, near some good restaurants too, and gas is nearby - essentially everything I have needed was nearby.  The room was clean and it has a fridge, stove, microwave, etc.  I might use the frig for one night or even the microwave.  I had an issue with my sink in the bathroom - there is another sink if necessary in the 'kitchen' area of the room.  The General Manager worked with me to resolve the issue and that resolution was fine.  I would stay here again if passing by the area as it is a known entity - and convenient as noted previously.More</t>
   </si>
   <si>
+    <t>pdx2lax</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r457649393-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -627,6 +681,9 @@
     <t>Where to begin? Strong cigarette smell and dirty ashtray in the sink. Yuk! At least five broken items in the room, the worst of which was the shower, which meant taking a bath in their stained tub. Double yuk. Not recommended!</t>
   </si>
   <si>
+    <t>Wedde2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r445271474-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -657,6 +714,9 @@
     <t>This is my 2nd stay at this hotel this year. The first time was good. This time, not so good. The reason I am downgrading this review is because this hotel needs maintenance or updating. The shower/tub faucet in my room dripped a heavy drip or stream continuously after shutting off the shower. I requested maintenance but the maintenance I received did not resolve the problem. I considered requesting another room but I found that I could sleep if I closed the bathroom door and turned the A/C fan to stay on continuously all night. There were other issues with the plumbing but were not as annoying as the drip in the tub. Other than that the price is right for what you get, kitchenette, and mini breakfast.There was also a burn hole on the front cover of the microwave oven which was a little disconcerting but the diffuser was clean so I used it.The "help save water" sign in the bathroom should be removed if the plumbing issues are not resolved because this hotel apparently does not care about saving water!I will consider other hotel options next time I visit.More</t>
   </si>
   <si>
+    <t>Lisa G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r439647044-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -678,6 +738,9 @@
     <t>the price was right and the room decent sized.  the exterior is well maintained and the parking, ample.  It was, however, not very clean.  The hallways were dirty and there were large stains on the carpet in the room.   I haven't stayed in an extended stay before but for those that don't know - apparently the rooms are cleaned according to a schedule.  I was there 6 days and no cleaning.  Maybe I missed it by 1 day. There's a small kitchen but you have to request what dishes you want.  For the low price it is okay but especially as a woman traveling alone I'd spend a little more, like $20 or $25 more a night, and get something a cleaner and a bit more comfortable with breakfast and a fitness center. Some Extended Stays have them but not this oneMore</t>
   </si>
   <si>
+    <t>Rhonda L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r434662697-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -702,6 +765,9 @@
     <t>The rooms are clean, the staff friendly, and we were able to bring our dogs with us.  There are no hair dryers, kitchen utensils, or daily housekeeping services, but you just need to ask for it if desired.  There is an area to take your dogs behind the hotel with doggie bags.  The television reception wasn't the greatest, but doable, since most people don't spend a lot of time watching it. The charge for our two dogs was pricey, That is really my only serious complaint, as our dogs are very well behaved.  I would recommend the hotel.More</t>
   </si>
   <si>
+    <t>RoyaAS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r385926618-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -723,6 +789,9 @@
     <t>Apart from Ron, the receptionist who greeted us, the rest is absolutely horrendous.Let's start from the beginning. We asked for a non smoking room and our room reeked of smoke smell. It took us many candles and sprays to be able to tolerate the air in the room. The room was ok at best. The carpet was dirty. The laminated floor was REALLY dirty. I had to mop it myself to clean it. The bed was uncomfortable and the mattress was too soft. For someone who suffers from back pains, it's a nightmare. Worst part? My chihuahua got fleas in the hotel. She is 6 years old and never had fleas ever. It took a couple of days in this place for her to be covered in them. I had to buy anti flea products over and over to finally get rid of them and the only time she was cleared was when we left the hotel. We reported the fleas to the receptionist (an African-American tall woman, don't remember the name at all) whose answer was nothing but a very passive aggressive "aww that sucks". Are you serious?????? I had asked if I could have my mail sent there during my stay and I was told yes. But all my mail was either sent back or thrown out. In short... Stay away from this place. It's a horrible dirty overpriced place. More</t>
   </si>
   <si>
+    <t>Google U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r385856104-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -741,6 +810,9 @@
     <t>Ok, to start off I was kind of thrown when the front doors weren't automatic. Being a hotel you would think an automatic front door would be a given. The rooms are good! However, when I looked at the door to the bathroom, the doorstop had a bunch of goop on it that I cleaned myself. The bathtub faucet was off the wall and just hanging there as well as the shower head. The smoke alarm was also off the ceiling just hanging there.They do have a continental breakfast but it's just coffee, packaged muffins, some granola bars and packaged oatmeal. Not a big deal for us since we were visiting family. The lobby entrance smelled like dirty dogs. They do allow pets so that's the reason. Tv shows are limited  like 15 channels. But again, we were visiting family so not a big deal. There is a best western literally next door. I would suggest there for a bit more money. More</t>
   </si>
   <si>
+    <t>1023scubadiver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r375220034-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -765,6 +837,9 @@
     <t>We stayed there while my son was playing in a water polo tournament. It is a fine basic place, clean rooms. We did not partake in the breakfast. Good location. When we first arrived, one of our rooms which was supposed to be non-smoking reeked of cigarettes. It took convincing the front desk that we needed a change, once they came up and realized we were correct, they made a quick switch to another room. Basic, rooms for the money. No work out space but I found a very nice fitness center nearby. There is a Target and plenty of fast food places for those looking for bargain food options, too. Clean place, certainly not luxurious but that wasn't our goal on this trip.More</t>
   </si>
   <si>
+    <t>CrystalMBA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r345602305-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -786,6 +861,9 @@
     <t>We recently stayed at this Extended Stay for one night during a long relocation trip. The location was relatively easy to find, close to gas and restaurants and parking was fairly open. After reading other reviews, I wasn't sure what to expect with front desk, but the girl was friendly and quick with our check-in. Much like other reviewers, I found the accommodations to be sub par for the nightly rate and can understand why people staying long term would be disappointed. The bathroom was old and the toilet handle broken. The kitchen sink had draining issues and the kitchen overall was definitely in need of renovation. Luckily this was only an overnight stay so I didn't feel the need to ask for another room.Pros: Good location, spacious, adequate heating, quietCons: Old and dingy, rooms in desperate need of renovations, no hot breakfastMore</t>
   </si>
   <si>
+    <t>AlohaSandra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r342209946-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -804,6 +882,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Ginamarie626</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r334607762-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -831,6 +912,9 @@
     <t>I was in the middle of a move and was staying at a motel (which I won't mention the name just that they will "leave the lights on for you") near extended stay. I ended up leaving and still had about 3 or 4 nights before my new place would be move in ready. I reserved my remaining days here and really wish I would have just stayed here from the beginning. The rooms are very spacious and comfortable especially when I have my 2 dogs with me. The staff was really nice and accommodating, the grounds are clean and plenty of room for my dogs to walk around. There are many places that say they are "pet friendly" but in reality you have to meet many restrictions in order to allow them to stay with you. This place is not like that when they say pet friendly that's exactly what they mean. Yes of course there are fees that come with it and that is to be expected and well worth it since it's not unreasonable. Thank you again for a comfortable stay during a time when my life was a little upside down.More</t>
   </si>
   <si>
+    <t>Jeanne T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r329626124-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -858,6 +942,9 @@
     <t>This is a good value and while it's not exactly a full service hotel, it's a great place if you need a kitchen,  full size fridge and amazingly nice staff.  Ygnacio and David, along with a few others,  were so nice.  I left my phone chargers in the room when we checked out.  Upon returning a few hours later, they saw me walking in and had them waiting for me at the front desk.  Ygnacio also helped me change my reservation and get a refund for one day!  Just outstanding customer service.  Thanks,  guys!More</t>
   </si>
   <si>
+    <t>61bruins61</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r328609531-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -882,6 +969,9 @@
     <t>Poor room service, horrible pillows, uncordial staff, toilet didn't work, even after repairman tried to fix it. No hairdryer in room--had to ask for it.  No utensils in kitchen and we were told we had to ask for them.More</t>
   </si>
   <si>
+    <t>Aaron G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r326620220-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -900,6 +990,9 @@
     <t>I booked a Studio Suite 2 Full Beds room from this hotels website directly, not from any travel site 2 months in advance and when I arrive I was told that they had no rooms of this type available. Therefore I was given a room that was musty, smokey, had a sign that said this is a none smoking room however there was an ash tray on the table?? It smelt so awful to the point I needed to go get an air fresher in order to sleep through the night. One thing to keep in mind, this hotel has ZERO amenities. If you forget anything as simple as Tums, Advil, tooth paste, the BARE MINIMUM essentials, they have nothing here for purchase. You have to walk yourself across the street to a gas station for those items. This was my first stay at ESA and I'm disappointed to say it'll be the last. More</t>
   </si>
   <si>
+    <t>Anthony A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r298532445-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -927,6 +1020,9 @@
     <t>nothing special to write about here, just a simple room with very generic furniture and fixtures. The studio kitchen was a bonus and the TV was fine with cable. Breakfast was limited, it isn't really a breakfast, it's more of a snack with granola bars, limited fruit, tiny muffins and coffee. It's enough to get you going until you actually have breakfast. Ample free parking and a dog walk for those so inclined (they accept small dogs). There is a small shopping center with a Home Depot as the anchor with a Sizzler, Denny's and small shops and gas station/car wash. It's located directly off the 57 on Arrow Hwy and just a couple of miles from Raging Waters waterpark. A 3 star rating is a reach, 2 and a half is more like it. Not a whole in the wall, just generic with no bells or whistles. There is also generic wifi with the option to upgrade for a fee.More</t>
   </si>
   <si>
+    <t>5startraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r298187739-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -942,6 +1038,9 @@
     <t>This hotel gave us a choice of paying one price with housekeeping services or one without housekeeping.  We chose without, which made it a really reasonable price compared to other options considered.  The room was an efficiency with it's own kitchenette with refrigerator, stove, sink, microwave.  You will need to request the kitchen items as they're not stocked in the room.  There's no hotel ice maker.  We didn't mind not having a housekeeper with the exception of towel service.  The "towel guy" who launders comes in at 11pm so our towel request at 7pm was a problem. The hotel is pet friendly and there's a nice grassy area with cleanup stations.  However, not all pet owner's are courteous enough to clean up after their pets and the trash cans were overflowing.  We did experience some "nighttime drunken drama" in the parking lot from one group staying in the hotel during a weekend.  Not a bad choice at this price point while traveling thru or a short stay in the area.More</t>
   </si>
   <si>
+    <t>Judy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r292397899-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -969,6 +1068,9 @@
     <t>I needed to stay here at a difficult time.  Stay America staff and facilities fit the bill perfectly.    I was welcomed by a very friendly front desk person who explained what was available from Stay America during my stay.   Upon entering my room, I had not expect what could almost be considered a full kitchen with a comfortable bedroom and bath.  I was able to get all utensils I needed from the front desk for the kitchen.    This included a toaster, dishes, silver and mug, towels and dishwashing liguid included.   I am a very independed person and I enjoyed the convenience of being able to empty my own trash when needed, do laundry, pick up a quick "grab and go" breakfast if I wanted to.    It was very quiet, not a party house.    Perfect!!!   It really is a home away from home as much as any hotel could be, certainly for the price.More</t>
   </si>
   <si>
+    <t>tiahrt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r280661116-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -996,6 +1098,9 @@
     <t>Come here at least 2-3 times a year. Very accommodating and super friendly. Ygnacio is great! Will go out of his way to help. The cutback on not having dishes, silverware or something to clean up spills on counter, etc.is a pain but the rooms are very nice, clean, and comfy. Not a smelly pet friendly hotel at all, which is what we like. Good price for the area.More</t>
   </si>
   <si>
+    <t>drdroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r277091157-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1023,6 +1128,9 @@
     <t>This chain is my least favorite of the Extended stay hotels. So many amenities you don't get here but get at others for a similar price. Only small rooms, no 1 bedroom suites. No longer do the rooms come with dishes/silverware. You have to call them and tell them what you need. I guess this is another cost cutting  measure (haven't seen a similar reduction in rates!), but its a pain. I brought some stuff in for dinner, then realized on plates to put it on. Took about 45 minutes and two calls to front desk. for them to bring in my stuff.Got tired of the small room and changed to another Hotel, as I was going to be in the area for about 6 weeks.More</t>
   </si>
   <si>
+    <t>nocaliman1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r270222774-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1047,6 +1155,9 @@
     <t>Love this place. Very clean nicely appointed rooms. Very Friendly, helpful and professional staff. Good parking, quiet.Have stayed Here before when visiting Family and am never disappointed. Ygnacio is a familiar face, and was particularly helpful.The quality and rates makes it the best place to stay in San Dimas.More</t>
   </si>
   <si>
+    <t>dmyr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r260779815-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1074,6 +1185,9 @@
     <t>Not a good place to stay for a business trip. No computer or printers available for business needs.Bathtub had hair, refrigerator was old and loud, gum stuck under kitchen counter and toilet continued to run. They did reimburse me for the inconvenience. Not in the best condition,  not maintained very well. Has a lot of paint on places as band aidsMore</t>
   </si>
   <si>
+    <t>cruznfun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r253555652-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1101,6 +1215,9 @@
     <t>My husband and I were going to the Winternationals at the Speedway. We needed a place close by we could taxi to and from. This hotel worked perfectly. Only $7 ride with Uber. The gentleman at front desk was very friendly. Our room was clean, only draw back was noise. Refrigerator was very noisy whenever it kicked on. Also walls thin. Towels were like sandpaper :( Check out was very easy, once again front staff very friendly. They had coffee, muffins, fruit and granola bars in lobby. Overall it was a great stay, perfect for our needs. I will be back :)More</t>
   </si>
   <si>
+    <t>prettypink101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r250263383-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1125,6 +1242,9 @@
     <t>Omg worst terrified experience ever. Booked a room online to reserve. Got there in lobby and there's a sheriff at the table not the front desk. As soon as i tell the clerk my name the sheriff walks outside and gets on the phone. I get in the car to go to the store before I walk in my room, I get pulled over my 2 Undercover Police Cars asking me why did I leave the hotel. Omg I felt so terrified and confused. There running drug police stings at that hotel is what they told me. I was just trying to get a room and relax and take a nap. So if you look suspicious or with another person there going to harras you and question you. Be careful there. Never again! More</t>
   </si>
   <si>
+    <t>Mario D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r238716773-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1152,6 +1272,9 @@
     <t>Upon check-in the manager and front desk person were very nice.  This place was a hidden gem I stayed here for a short time and really enjoyed my stay.  The customer service is great.  I would recommend to anyone that wants to stay at a nice hotel with reasonable rates.More</t>
   </si>
   <si>
+    <t>Angie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r235100836-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1173,6 +1296,9 @@
     <t>I can only give 2 stars because the outside of the hotel is nice and the grounds are kept. We did get a good price ($67!) and I felt safe there.Here is where the low score comes in: OUR. ROOM. WAS. FILTHY.I mean, it was flat-out gross. The carpets had clearly only been swept in the areas that people would notice. There was someone else's dirty sock behind the dresser. Underneath the bed was disgusting with dust and peanut shells. The bathroom shower had mold in the ground and there was mildew scum around the faucet. The toilet lid was cracked and the sink looked greasy. The kitchen part was fairly clean but the lamps in the room were covered in dust and it basically looked as if the maids were spot-cleaning only.Our room didn't have an odor but we had the unfortunate circumstance to be in a room next to someone with a very excitable dog who barked off and on all night. I hate to rate this hotel this low because it was a decent price but the cleaning staff here *really* need to step up their game.More</t>
   </si>
   <si>
+    <t>Tim K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r234380828-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1197,6 +1323,9 @@
     <t>I stayed here to be close to an event at the Pomona Fairplex and it served its purpose very well. It is a easy and convenient drive to the Fairplex. The room was clean (though I didn't like the old-style bead spread). There are fast food and shopping options very close. The little kitchen was clean and well organized. There is a noisy car wash next door, but it closes at night so it's not a sleeping problem.More</t>
   </si>
   <si>
+    <t>Ehauen90</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r221529430-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1212,6 +1341,9 @@
     <t>I had to stay in San Dimas for a week for work. Upon arrival Lindsay at the front desk was very welcoming and helpful, getting me through to my room in a quick fashion but also adding a nice personal touch of friendliness to make me feel more at home here. The room was clean on arrival and it was nice to get a kitchen set to cook with and save some money on eating. I liked the variety of pillow options since I usually use a firmer pillow at home and they had one among the mix of soft and firm.</t>
   </si>
   <si>
+    <t>annabelle t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r218534336-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1230,6 +1362,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>shelliavalos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r212784220-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1245,6 +1380,9 @@
     <t>Trash in the hallways dog poop everywhere.a manager. That doesn't come from behind the front desk to look around.the so called locked doors are broken.people sleeping in the hall ways and the manager. Has changed the so called breakfast. To some granola bars that are so hard I'm afraid. To eat them and some seed filled oranges. ..</t>
   </si>
   <si>
+    <t>Laurie K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r209478146-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1263,6 +1401,9 @@
     <t>We were in the area for a few days to help relatives move into their new place.  The grounds are very nice, and it is very convenient when traveling with a dog.  The room was quiet and clean (we did not have maid service during our stay) and the bed and pillows were very comfortable.  On the "could be better list", the towels are extremely small, thin and scratchy, and the TWO forks and spoons provided were of such cheap quality, I wasn't sure how long they might last.  I did not try their breakfast, but it looked like a nice setup.  Excellent coffee place within walking distance: Koffee Klatch in the Target shopping center.  I would go back if we are in the area with our doggie.More</t>
   </si>
   <si>
+    <t>beeeuty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r208782793-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1278,6 +1419,9 @@
     <t>Only one person working front desk. Person left on hour long lunch / dinner break with no coverage / back-up / support. Why can't management back that person up during their employee breaks? Doesn't prove to me that this is the great customer service I've come to expect from this company, nor does it give me the warm feeling if there was an emergency and help was needed from the clerk...</t>
   </si>
   <si>
+    <t>adalee45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r206736700-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1293,6 +1437,9 @@
     <t>My stay was so nice. Clean room breakfast in the morning what more can you ask for. I'd like to recognize the night front desk associate Andrew he was so helpful in finding me a great room since he noticed priceline gave me a smoking room and I didn't want that thank you again definitely recommending friends to stay here!!!</t>
   </si>
   <si>
+    <t>Fshon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r205234851-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1350,6 +1497,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Alysyn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r196689954-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1368,6 +1518,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>andrew w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r195004237-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1395,6 +1548,9 @@
     <t>I only live mins from this location, so my stay is mostly for some much needed RNR. Great parking, Great staff very friendly, helpful and efficient. I like staying on first floor closest to exit, because even tho I am a smoker I like the none smoking rooms but I like to be able to run out side real quick when I feel so they always try to accommodate when I stay. One of my favorite restraunts Applebees is only steps away from there.More</t>
   </si>
   <si>
+    <t>rachelmbranscombe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r194801328-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1419,6 +1575,9 @@
     <t>I really appreciated the customer service!  Aurora, who checked us in, was very kind and friendly.  And when there was a problem with the booking (due to the website we booked through), the manager went out of his way to help us.  I would recommend this!More</t>
   </si>
   <si>
+    <t>Lee M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r185093479-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1437,6 +1596,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Russell C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r184092158-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1461,6 +1623,9 @@
     <t>We have received exceptional service since we were checked in .  The staff have treated us excellent. This hotel is very clean and homey. Everybody here from the management to the housekeepers  treat us very well. Thank you for this opportunity to voice our option.                                                                               Russell and Kelly Camp .More</t>
   </si>
   <si>
+    <t>Karen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r184081758-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1479,6 +1644,9 @@
     <t>I've stayed here twice and I'll stay again. Once a year I come to the area for the cancer walk. Staying here is a bonus because I love to dance and Montana's is walking distance from this hotel. I would like to have an actual GLASS glass to have a cocktail in and an actual ice machine rather than ice cube trays would be great too.More</t>
   </si>
   <si>
+    <t>kwnike13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r182561007-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1503,6 +1671,9 @@
     <t>Hotels in this region are pretty expensive.  This one was very inexpensive and worth every penny.  The workers are very friendly and the rooms were clean.  We stayed one night and the location is great to Puddingstone Lake.  The rooms are nothing special but if you are looking for an inexpensive place to stay then this is the place!More</t>
   </si>
   <si>
+    <t>jntman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r181865378-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1527,6 +1698,9 @@
     <t>Stayed here on family business. Very nice property and easy access to the 57,10 &amp; 210. We booked at the last minute for 7 nights. The rate for 7 nights was $75/night. Great price for the LA area. The grounds were well maintained and staff was very helpful. Never heard the 210 traffic from inside the room. Usually hotel internet speeds are too slow, but we had laptops and phones running simultaneously and had excellent connection. The grab and go breakfast was just that-enough to get wake you up and get going.We liked the kitchen set up-the full size fridge was a plus.The only suggestion I would make is to add more kitchenware. There were only 2 of everything. I know its set up for 2 people, but when you have family over or don't feel like washing, you're out of luck, unless you did like us and hit the store for paper plates and cups.Close to grocery stores,99cent only store,Walmart, Sams Club,etc.All in all it was a very pleasant stay. Thank you.More</t>
   </si>
   <si>
+    <t>Justforbre</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r180056069-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1551,6 +1725,9 @@
     <t>Zero amenities, dirty toilet,outlets in room did not function correctly, the grab and go breakfast items not worth grabbing. This hotel is very over priced based on its lack of services and overall condition of the rooms. More</t>
   </si>
   <si>
+    <t>Bev H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r174562961-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1578,6 +1755,9 @@
     <t>The outside grounds are disgusting.  Cigarette butts and trash litter the parking lot, the dog walking area had so many cigarette butts on it I hated to take my dog out on it.  Yeah, it is great they let animals stay...but......   The room was like dungeon, very dimly lit.  The Grab and Go breakfast....not my idea of breakfast.  Cold water to make instant oatmeal, fruit the looked like the grocery store had already rejected it, and on the last day there weren't even any stale muffins left.  No housekeeping at all, no shampoo, not much of anything.  We left and moved down the street for the rest of our stay.More</t>
   </si>
   <si>
+    <t>biancasfour20</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r171767549-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1593,6 +1773,9 @@
     <t>Made me feel more at home than any other hotel in the area. I didn't want to leave. If you want to stay somewhere that feels like being at home then The Extended Stay is your best choice. No other hotel has a full kitchen where you can cook your own food. Even walking through the lobby I could smell other customers cooking. That's awesome. m</t>
   </si>
   <si>
+    <t>GNZ_M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r171762369-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1608,6 +1791,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>peeking_traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r166521050-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1629,6 +1815,9 @@
     <t>Had to work on a project for a couple of months in San Dimas and this was a perfect place for me . Had all I needed, a very comfortable bed, a small kitchen with microwave, ref, stove, sink, cabinets, two desks for my laptop, books and office stuff. Very clean and an air conditioner for the hot summer months of Southern CA. Good enough channels to choose from the free cable and free WiFi to surf the internet. The location is another good thing about it. Close to a lot of restaurants, a gas station, 99cents store, Cost Plus, Lowes. Short drive to other shopping areas and downtown San Dimas and near the 57 ramp. Very good housekeeping service if you stay for over a week but in the front desk you could easy exchange towels and ask for toiletries. Although not fancy enough, the laundry facility and breakfast to-go cart serve the purpose. Some rooms have been occupied by those with pets so if you are allergic to pet hair you may want to inquire first.More</t>
   </si>
   <si>
+    <t>trooper198</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r165880427-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1653,6 +1842,9 @@
     <t>I came out to San Dimas to visit a friend for the weekend.  He recommended the Extended Stay.  If your looking for fancy and elaborate place this is not for you.  If your looking for a clean, quiet place to stay, this IS the place for you.  Easy check in, clean spacious rooms, with  a comfortable bed. A grab and go breakfast, as they call it, coffee, instant oatmeal, and packaged muffins.  Again nothing fancy, but filled the need.More</t>
   </si>
   <si>
+    <t>dpm313</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r165212022-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1677,6 +1869,9 @@
     <t>Based upon our previous stay (see previous review) at the Extended Stay in San Dimas, and a return trip by my father, he again chose to stay at the Extended Stay ( this June) because of the quality of the service, and the excellent staff.  As we live out of town, when he comes to the San Dimas area to visit with friends, it is sometimes easier for him to stay over.  Knowing that he is safe is important, and having the Breakfast on the Go is a plus.  Thank you for your excellenceMore</t>
   </si>
   <si>
+    <t>guest313</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r163516293-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1701,6 +1896,9 @@
     <t>Stayed here for a night, definitely worth the price. Room was very clean and the staff was very pleasant. Offered great commodities, like the kitchen and nice big bathroom. Definitely hope to stay here again.More</t>
   </si>
   <si>
+    <t>Rosario2229</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r162585844-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1725,6 +1923,9 @@
     <t>Front desk attendant Ron very helpful and very curtiouse. Great location with many family friendly restaurants. Great shopping centers nearby. Very convinent right off the freeway. Would definitely stay here again on my next trip. More</t>
   </si>
   <si>
+    <t>Morticiakiki</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r161843633-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1752,6 +1953,9 @@
     <t>We stayed here for a short combo business/vacation trip. Was in a great location very near freeway access, close (walkable) to restaurants and near the quaint old town. The room was very comfortable and the kitchenette was great (dishes, utensils, even dish soap was provided). A small continental breakfast was available and the staff was both friendly and helpful.More</t>
   </si>
   <si>
+    <t>Newtonf57</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r157372313-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1770,6 +1974,9 @@
     <t>I stayed here from late January through early April. I travel constantly for work (see my house for days out of the year rarely see it a month total) and I have to say this hotel is one of my favorites. The scenery is nice and its about a block from any shopping you might want to do. Target, Ross, Grocery Stores, gas stations, and multiple food joints are just right around the corner. The staff here is always smiling and ready to help however they can and will tell you hello every single time you see them in the hallways. There is plenty of parking and its pet friendly too. The beds are comfortable, I stayed in a single bed room and it had two desks and a recliner too. My room included a stove top, full refrigerator, and a microwave. All in all considering all the hotels I have stayed at I rank this hotel in my top 5 favorites for sure. Next time you come to Southern California I recommend you call and book here.More</t>
   </si>
   <si>
+    <t>AlanL271</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r156618732-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1824,6 +2031,9 @@
     <t>I am always surprised when people post negative reviews about this hotel (I just read one).  Last year, during some pretty dark days (we had lost our home), we stayed for a month at the Extended Stay in San Dimas.  We arrived with our pets, booked 3 rooms, and each of us took some of our pets. During our stay, we were treated with the utmost courtesy and kindness by all members of the staff.  The breakfast on the go was wonderful and the laundry room a treat (no treks to the laundromat).  I didn't mind getting my own linen, and I preferred not having maid service (because we have some rescue cats that are loony with strangers). While we were able to find a new home, I will always, and I mean always, remember the staff of the Extended Stay in San Dimas.  That is why when my father had to be in town (we live quite a distance away), I booked his room, without hesitation at the Extended Stay in San Dimas.More</t>
   </si>
   <si>
+    <t>Josh V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r154447605-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1842,6 +2052,9 @@
     <t>I have thoroughly enjoyed my stay here at the Extended Stay America. For one, the price to quality comparison if fantastic. You have just about everything you could need within walking distance as well. Bowling, bars, grills, fast food, and shopping, are all conveniently located without the hassle of getting lost in a new place. The scenery is gorgeous! Snow tipped mountains in the distance and the smell of clean fresh air greats me every morning. The customer service is exactly what you expect from a professional establishment. Thank you to everyone on staff. I will be coming back as soon as the chance presents itself.More</t>
   </si>
   <si>
+    <t>MarinFam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r153241918-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1866,6 +2079,9 @@
     <t>My husband, daughter and I came to San Dimas for my surgery. This hotel was recommended to us by my surgal adviser. Booking this hotel was very easy and inexpensive! We were so surprised to see how beautiful it was inside and out. Our room was breath taking and had EVERY thing we needed. We felt like the rich.  The staff were all very kind and compassionate. After my surgery I was in more pain than expected, we did not have a wheelchair so the gentalman at the desk gave me his office chair so my husband could roll me to my room. This stay made a memorable time in our lives a happy one! Thank you Extended Stay and Staff.More</t>
   </si>
   <si>
+    <t>Judy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r153235102-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1884,6 +2100,9 @@
     <t>Having stayed at numerous Extended Stay locations, I feel this is one of their best.  Great location &amp; setting, the staff is very helpful &amp; friendly!  The recent improvements to the hotel are much appreciated.More</t>
   </si>
   <si>
+    <t>PATRICI J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r151070174-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1908,6 +2127,9 @@
     <t>The Extended Stay is in a perfect location.  The hotel is near many eating establishments and shopping is nearby as well.  I'm a shopper so I really enjoy that the hotel is near so many stores to explore.  To name a few Target, Ross, Steinmart, TJ Maxx and Trader Joes.The Extended Stay staff - Jean, Jesse and Ron - are fantastic.  Customer Service is very important to me.  A+The hotel has a very nice atmosphere and I feel very comfortable when I'm there.Business Travelers - this is a great place to stay.More</t>
   </si>
   <si>
+    <t>Coachchip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r151052003-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1923,6 +2145,9 @@
     <t>I have stayed at the Extended Stay in San Dimas now four times, every January for the last four years.  Each time it gets better and better.  They are constantly updating their rooms and hotel.  I have not had any problems there, the staff are friendly and helpful.  If you are needing a place to stay long term, check out Extended Stay, San Dimas!More</t>
   </si>
   <si>
+    <t>rosmik2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r151047743-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1941,6 +2166,9 @@
     <t>I was traveling alone and was nervous about privacy and safty. the hotel staff was very pleasant, courteous and most helpful! I was comforatable from the time i checked in to the time I left. It was a quick trip.  The location was fantastic because of all the restaurants in the area and the stores.  The overall look of the hotel was very clean and brite!  The best part was the quick breakfast that I was able to take with me uoon check out. Very nice touch!More</t>
   </si>
   <si>
+    <t>starsong1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r138613290-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1968,6 +2196,9 @@
     <t>I, too, had a very good experience with this hotel. The staff (Ron, in particular) was very nice, helpful and accomodating. The grounds and whole place is neat and clean. My partner and I are smokers, and this is one of the few places that still have a smoking floor (3rd flr). If you are not a smoker-I suggest not taking a room on the 3rd floor! - But the room itself was neat and clean. The kitchenette is perfect, the bathroom spotless. Wi-fi worked. So why did I not give 5 points? - They don't have king size bed, smoking available but the queen bed they do have is comfortable. Not a problem for me at 5'3" but at 6'4", my sweetie would've preferred a king bed. And although newly renovated, one desk had a few dark spots (like from ink or hair dye) and a scratch. Also, no, there isnt a hair dryer in the room, &amp; only one ashtray. If we werent so exhausted, we could easily have asked for the hair dryer and an extra ashtray-&amp; I am sure we would've received them promptly, but these things were very minor and not really inconviniences. They have what they call a "Get up and Go" breakfast from 6-9:30 am although we slept in and didnt partake-so can't give you an opinion on it, but I think its nice they offer it. IHOP is right down the street...I, too, had a very good experience with this hotel. The staff (Ron, in particular) was very nice, helpful and accomodating. The grounds and whole place is neat and clean. My partner and I are smokers, and this is one of the few places that still have a smoking floor (3rd flr). If you are not a smoker-I suggest not taking a room on the 3rd floor! - But the room itself was neat and clean. The kitchenette is perfect, the bathroom spotless. Wi-fi worked. So why did I not give 5 points? - They don't have king size bed, smoking available but the queen bed they do have is comfortable. Not a problem for me at 5'3" but at 6'4", my sweetie would've preferred a king bed. And although newly renovated, one desk had a few dark spots (like from ink or hair dye) and a scratch. Also, no, there isnt a hair dryer in the room, &amp; only one ashtray. If we werent so exhausted, we could easily have asked for the hair dryer and an extra ashtray-&amp; I am sure we would've received them promptly, but these things were very minor and not really inconviniences. They have what they call a "Get up and Go" breakfast from 6-9:30 am although we slept in and didnt partake-so can't give you an opinion on it, but I think its nice they offer it. IHOP is right down the street and that is where we brunched at noon. I will have further work to do in San Dimas over the coming year, so I will continue to call this place my home away from home on nearly a weekly basis. And yes, I wouldn't hesitate to reccommend this very conviniently located, very reasonably priced and very welcoming hotel. THANK YOU RON &amp; EXTENDED STAYS!!! 2 more very pleased guests!More</t>
   </si>
   <si>
+    <t>annette m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r135849018-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -1995,6 +2226,9 @@
     <t>I called the hotel to see what the rates would be for my Turkish students, eight of them, and April gave me a great rate.  I was nervous that, because of such a good rate, they would short my students.  I live in San Dimas and I needed my students to be near me until they went to LAX.  We left the University where I have been teaching English and drove to the hotel not knowing what we would find as we were given the best rate in San Dimas and being that I live there, I do not stay in hotels.  OMG!!!  The rooms were beautiful, the staff was helpful, curtious and respectul to my students, and their stay at this hotel was a memorable and happy one!   Thank you Extended Stay America!More</t>
   </si>
   <si>
+    <t>James M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r135578415-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2013,6 +2247,9 @@
     <t>My wife and I highly recommend the San Dimas Extended Stay America we called "home" during a stressful escrow while selling our home and when our future residence would be ready.  The staff were very friendly and extremely helpful.  The room was laid out well, clean, comfortable and quiet and had been updated several month's earlier.  Dollar wise, this was a bargain for the accommodations and the courteous staff.More</t>
   </si>
   <si>
+    <t>ASEenterprises</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r127699729-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2040,6 +2277,9 @@
     <t>I run my own business and work far from home.  I am usually gone for 2 to 4 weeks at a time and have been staying at the San Dimas Extended Stay America since August 2011. Being away from home for such a long period of time is not easy. I have to say this has become my second home. The entire staff are always attentive, courteous, and do  whatever it takes when they can to ensure my stay is a comfortable one. The entire facility is going thru a complete renovation from new asphalt in the parking lot, exterior paint to the interior remodel with new flat screens, new mattresses and bedding to the down feather pillows. I would recommend this facility to anyone who needs accommodations with a kitchenette.  I wanted to take this opportunity to let the the entire staff know how much all their hard work is appreciated.More</t>
   </si>
   <si>
+    <t>WC S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r127671150-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -2053,6 +2293,9 @@
   </si>
   <si>
     <t>I have stayed here seveal times and always found it to be a great place to stay while conducting my business.More</t>
+  </si>
+  <si>
+    <t>Janet F</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d77044-r126712883-Extended_Stay_America_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
@@ -2575,43 +2818,47 @@
       <c r="A2" t="n">
         <v>37799</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146387</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2623,56 +2870,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37799</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146388</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2684,56 +2935,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37799</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146389</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2755,56 +3010,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37799</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146390</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2826,56 +3085,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37799</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146391</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2893,56 +3156,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37799</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>8507</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2954,56 +3221,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37799</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146392</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -3025,56 +3296,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37799</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>4459</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3086,56 +3361,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37799</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146393</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -3157,56 +3436,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="X10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37799</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>4206</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="O11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3228,56 +3511,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37799</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146394</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -3299,56 +3586,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37799</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146395</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -3370,56 +3661,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="X13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="Y13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37799</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>53305</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="J14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="O14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3431,56 +3726,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="X14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37799</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146396</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="K15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -3500,56 +3799,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="X15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37799</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146397</v>
+      </c>
+      <c r="C16" t="s">
+        <v>186</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="J16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="K16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3571,56 +3874,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="X16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37799</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146398</v>
+      </c>
+      <c r="C17" t="s">
+        <v>195</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="L17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3638,56 +3945,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="X17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="Y17" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37799</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146399</v>
+      </c>
+      <c r="C18" t="s">
+        <v>205</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="J18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="O18" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3705,56 +4016,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="X18" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="Y18" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37799</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146400</v>
+      </c>
+      <c r="C19" t="s">
+        <v>215</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="J19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="K19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="O19" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3768,50 +4083,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37799</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146401</v>
+      </c>
+      <c r="C20" t="s">
+        <v>221</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="J20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="K20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="O20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3823,56 +4142,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="X20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="Y20" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37799</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>5462</v>
+      </c>
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="J21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="O21" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3890,50 +4213,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37799</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>41216</v>
+      </c>
+      <c r="C22" t="s">
+        <v>240</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="L22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3951,56 +4278,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="X22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="Y22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37799</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146402</v>
+      </c>
+      <c r="C23" t="s">
+        <v>249</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4014,50 +4345,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37799</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>60828</v>
+      </c>
+      <c r="C24" t="s">
+        <v>257</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="J24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="K24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="L24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4071,41 +4406,45 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37799</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>146403</v>
+      </c>
+      <c r="C25" t="s">
+        <v>264</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="J25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="K25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="L25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
@@ -4122,56 +4461,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="X25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="Y25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37799</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>146404</v>
+      </c>
+      <c r="C26" t="s">
+        <v>273</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="K26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="L26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -4191,50 +4534,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37799</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>146405</v>
+      </c>
+      <c r="C27" t="s">
+        <v>281</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="J27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="K27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="L27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -4252,50 +4599,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37799</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146406</v>
+      </c>
+      <c r="C28" t="s">
+        <v>288</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="J28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="K28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="O28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4311,56 +4662,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="X28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="Y28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37799</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>42576</v>
+      </c>
+      <c r="C29" t="s">
+        <v>298</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="J29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="K29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="L29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4378,56 +4733,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="X29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="Y29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37799</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146407</v>
+      </c>
+      <c r="C30" t="s">
+        <v>308</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="J30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="K30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="L30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="O30" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4443,47 +4802,51 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="X30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="Y30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37799</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>5471</v>
+      </c>
+      <c r="C31" t="s">
+        <v>317</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="J31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="K31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
@@ -4502,50 +4865,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37799</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>21711</v>
+      </c>
+      <c r="C32" t="s">
+        <v>324</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="J32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="K32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4563,56 +4930,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="X32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="Y32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37799</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146408</v>
+      </c>
+      <c r="C33" t="s">
+        <v>334</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="J33" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="K33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="L33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4630,56 +5001,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="X33" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="Y33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37799</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>47312</v>
+      </c>
+      <c r="C34" t="s">
+        <v>340</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="J34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="K34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="L34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="O34" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4697,56 +5072,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="X34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="Y34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37799</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146409</v>
+      </c>
+      <c r="C35" t="s">
+        <v>350</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="J35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="K35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="L35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4762,56 +5141,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="X35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="Y35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37799</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146410</v>
+      </c>
+      <c r="C36" t="s">
+        <v>360</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="J36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="K36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="L36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="O36" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4827,56 +5210,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="X36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="Y36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37799</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146411</v>
+      </c>
+      <c r="C37" t="s">
+        <v>370</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="J37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="L37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4894,56 +5281,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="X37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="Y37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37799</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146412</v>
+      </c>
+      <c r="C38" t="s">
+        <v>379</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="J38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="K38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="O38" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4955,56 +5346,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="X38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="Y38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37799</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>146413</v>
+      </c>
+      <c r="C39" t="s">
+        <v>389</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="J39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="K39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="L39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="O39" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5020,47 +5415,51 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="X39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="Y39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37799</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>146414</v>
+      </c>
+      <c r="C40" t="s">
+        <v>399</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="J40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="K40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="L40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
@@ -5087,56 +5486,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="X40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="Y40" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37799</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>36398</v>
+      </c>
+      <c r="C41" t="s">
+        <v>408</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="J41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="K41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="L41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="O41" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5152,56 +5555,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="X41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="Y41" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37799</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>43114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>418</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="J42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="K42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="L42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="O42" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5219,50 +5626,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37799</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>2705</v>
+      </c>
+      <c r="C43" t="s">
+        <v>426</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="J43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="K43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="L43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="O43" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -5280,47 +5691,51 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="X43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="Y43" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37799</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>146415</v>
+      </c>
+      <c r="C44" t="s">
+        <v>435</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="J44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="K44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="L44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
@@ -5349,50 +5764,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37799</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>146416</v>
+      </c>
+      <c r="C45" t="s">
+        <v>441</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="J45" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="K45" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="L45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5412,41 +5831,45 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37799</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>146417</v>
+      </c>
+      <c r="C46" t="s">
+        <v>448</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="J46" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="K46" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="L46" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
@@ -5475,50 +5898,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37799</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>68330</v>
+      </c>
+      <c r="C47" t="s">
+        <v>454</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="J47" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="K47" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="L47" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5542,41 +5969,45 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37799</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>77040</v>
+      </c>
+      <c r="C48" t="s">
+        <v>461</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="J48" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="K48" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="L48" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
@@ -5605,41 +6036,45 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37799</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146418</v>
+      </c>
+      <c r="C49" t="s">
+        <v>467</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="J49" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="K49" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="L49" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
@@ -5668,41 +6103,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37799</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146419</v>
+      </c>
+      <c r="C50" t="s">
+        <v>473</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="J50" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="K50" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="L50" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -5729,47 +6168,51 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="X50" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="Y50" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37799</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146416</v>
+      </c>
+      <c r="C51" t="s">
+        <v>448</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="J51" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="K51" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="L51" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
@@ -5798,50 +6241,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37799</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146415</v>
+      </c>
+      <c r="C52" t="s">
+        <v>441</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="J52" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="K52" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="L52" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5865,50 +6312,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37799</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146420</v>
+      </c>
+      <c r="C53" t="s">
+        <v>493</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="J53" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="K53" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="L53" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="O53" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5932,50 +6383,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37799</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>146421</v>
+      </c>
+      <c r="C54" t="s">
+        <v>500</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="J54" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="K54" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="L54" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="O54" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5997,56 +6452,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="X54" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="Y54" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37799</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>146422</v>
+      </c>
+      <c r="C55" t="s">
+        <v>510</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="J55" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="K55" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="L55" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="O55" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6058,56 +6517,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="X55" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="Y55" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37799</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>7440</v>
+      </c>
+      <c r="C56" t="s">
+        <v>519</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="J56" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="K56" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="L56" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="O56" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6131,50 +6594,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37799</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>14695</v>
+      </c>
+      <c r="C57" t="s">
+        <v>526</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="J57" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="K57" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="L57" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="O57" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6196,56 +6663,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="X57" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="Y57" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37799</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>10035</v>
+      </c>
+      <c r="C58" t="s">
+        <v>535</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="J58" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="K58" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="L58" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="O58" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6267,56 +6738,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="X58" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="Y58" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37799</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>146423</v>
+      </c>
+      <c r="C59" t="s">
+        <v>542</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="J59" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="K59" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="L59" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="O59" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6338,56 +6813,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="X59" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="Y59" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37799</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>146424</v>
+      </c>
+      <c r="C60" t="s">
+        <v>551</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="J60" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="K60" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="L60" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="O60" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6409,47 +6888,51 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="X60" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="Y60" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37799</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>146425</v>
+      </c>
+      <c r="C61" t="s">
+        <v>560</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="J61" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="K61" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
       <c r="L61" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
@@ -6476,56 +6959,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
       <c r="X61" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="Y61" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37799</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>146426</v>
+      </c>
+      <c r="C62" t="s">
+        <v>569</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
       <c r="J62" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
       <c r="K62" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
       <c r="L62" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -6547,47 +7034,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="X62" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="Y62" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37799</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>146427</v>
+      </c>
+      <c r="C63" t="s">
+        <v>579</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="J63" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
       <c r="K63" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="L63" t="s">
-        <v>524</v>
+        <v>584</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
@@ -6616,50 +7107,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>524</v>
+        <v>584</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37799</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>146428</v>
+      </c>
+      <c r="C64" t="s">
+        <v>585</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="J64" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
       <c r="K64" t="s">
-        <v>527</v>
+        <v>588</v>
       </c>
       <c r="L64" t="s">
-        <v>528</v>
+        <v>589</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="O64" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6683,50 +7178,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>528</v>
+        <v>589</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37799</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>146429</v>
+      </c>
+      <c r="C65" t="s">
+        <v>591</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="J65" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="K65" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="L65" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="O65" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6750,50 +7249,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37799</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>146430</v>
+      </c>
+      <c r="C66" t="s">
+        <v>599</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="J66" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
       <c r="K66" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="L66" t="s">
-        <v>541</v>
+        <v>604</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="O66" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6815,56 +7318,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>542</v>
+        <v>605</v>
       </c>
       <c r="X66" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="Y66" t="s">
-        <v>544</v>
+        <v>607</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37799</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>146431</v>
+      </c>
+      <c r="C67" t="s">
+        <v>608</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="J67" t="s">
-        <v>547</v>
+        <v>611</v>
       </c>
       <c r="K67" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="L67" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="O67" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6886,47 +7393,51 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="X67" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="Y67" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37799</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>146432</v>
+      </c>
+      <c r="C68" t="s">
+        <v>617</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="J68" t="s">
-        <v>555</v>
+        <v>620</v>
       </c>
       <c r="K68" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="L68" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
@@ -6953,47 +7464,51 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="X68" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="Y68" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37799</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>146433</v>
+      </c>
+      <c r="C69" t="s">
+        <v>626</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>561</v>
+        <v>627</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>562</v>
+        <v>628</v>
       </c>
       <c r="J69" t="s">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="K69" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
       <c r="L69" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
@@ -7020,56 +7535,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="X69" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="Y69" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37799</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>146434</v>
+      </c>
+      <c r="C70" t="s">
+        <v>635</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>569</v>
+        <v>636</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="J70" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="K70" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
       <c r="L70" t="s">
-        <v>573</v>
+        <v>640</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>574</v>
+        <v>641</v>
       </c>
       <c r="O70" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7091,47 +7610,51 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>575</v>
+        <v>642</v>
       </c>
       <c r="X70" t="s">
-        <v>576</v>
+        <v>643</v>
       </c>
       <c r="Y70" t="s">
-        <v>577</v>
+        <v>644</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37799</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>146435</v>
+      </c>
+      <c r="C71" t="s">
+        <v>645</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="J71" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="K71" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="L71" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
@@ -7160,50 +7683,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37799</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>146436</v>
+      </c>
+      <c r="C72" t="s">
+        <v>652</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>584</v>
+        <v>653</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="J72" t="s">
-        <v>586</v>
+        <v>655</v>
       </c>
       <c r="K72" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
       <c r="L72" t="s">
-        <v>588</v>
+        <v>657</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>589</v>
+        <v>658</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7225,56 +7752,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>590</v>
+        <v>659</v>
       </c>
       <c r="X72" t="s">
-        <v>591</v>
+        <v>660</v>
       </c>
       <c r="Y72" t="s">
-        <v>592</v>
+        <v>661</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37799</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>146430</v>
+      </c>
+      <c r="C73" t="s">
+        <v>608</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>594</v>
+        <v>663</v>
       </c>
       <c r="J73" t="s">
-        <v>595</v>
+        <v>664</v>
       </c>
       <c r="K73" t="s">
-        <v>596</v>
+        <v>665</v>
       </c>
       <c r="L73" t="s">
-        <v>597</v>
+        <v>666</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>598</v>
+        <v>667</v>
       </c>
       <c r="O73" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7296,56 +7827,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="X73" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
       <c r="Y73" t="s">
-        <v>601</v>
+        <v>670</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37799</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>93050</v>
+      </c>
+      <c r="C74" t="s">
+        <v>671</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>602</v>
+        <v>672</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>603</v>
+        <v>673</v>
       </c>
       <c r="J74" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="K74" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="L74" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>598</v>
+        <v>667</v>
       </c>
       <c r="O74" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7367,47 +7902,51 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="X74" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
       <c r="Y74" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>37799</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>146437</v>
+      </c>
+      <c r="C75" t="s">
+        <v>678</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>608</v>
+        <v>679</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>609</v>
+        <v>680</v>
       </c>
       <c r="J75" t="s">
-        <v>610</v>
+        <v>681</v>
       </c>
       <c r="K75" t="s">
-        <v>611</v>
+        <v>682</v>
       </c>
       <c r="L75" t="s">
-        <v>612</v>
+        <v>683</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
@@ -7434,56 +7973,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>613</v>
+        <v>684</v>
       </c>
       <c r="X75" t="s">
-        <v>614</v>
+        <v>685</v>
       </c>
       <c r="Y75" t="s">
-        <v>615</v>
+        <v>686</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>37799</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>16829</v>
+      </c>
+      <c r="C76" t="s">
+        <v>687</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>617</v>
+        <v>689</v>
       </c>
       <c r="J76" t="s">
-        <v>610</v>
+        <v>681</v>
       </c>
       <c r="K76" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
       <c r="L76" t="s">
-        <v>619</v>
+        <v>691</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
       <c r="O76" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7505,56 +8048,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>613</v>
+        <v>684</v>
       </c>
       <c r="X76" t="s">
-        <v>614</v>
+        <v>685</v>
       </c>
       <c r="Y76" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>37799</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>146438</v>
+      </c>
+      <c r="C77" t="s">
+        <v>694</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>622</v>
+        <v>695</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>623</v>
+        <v>696</v>
       </c>
       <c r="J77" t="s">
-        <v>624</v>
+        <v>697</v>
       </c>
       <c r="K77" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
       <c r="L77" t="s">
-        <v>626</v>
+        <v>699</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
       <c r="O77" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7576,56 +8123,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="X77" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="Y77" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>37799</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>146439</v>
+      </c>
+      <c r="C78" t="s">
+        <v>703</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>630</v>
+        <v>704</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>631</v>
+        <v>705</v>
       </c>
       <c r="J78" t="s">
-        <v>624</v>
+        <v>697</v>
       </c>
       <c r="K78" t="s">
-        <v>632</v>
+        <v>706</v>
       </c>
       <c r="L78" t="s">
-        <v>633</v>
+        <v>707</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
       <c r="O78" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7647,56 +8198,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="X78" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="Y78" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>37799</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>146440</v>
+      </c>
+      <c r="C79" t="s">
+        <v>709</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>635</v>
+        <v>710</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="J79" t="s">
-        <v>624</v>
+        <v>697</v>
       </c>
       <c r="K79" t="s">
-        <v>637</v>
+        <v>712</v>
       </c>
       <c r="L79" t="s">
-        <v>638</v>
+        <v>713</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>639</v>
+        <v>714</v>
       </c>
       <c r="O79" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7718,56 +8273,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="X79" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="Y79" t="s">
-        <v>640</v>
+        <v>715</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>37799</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>146441</v>
+      </c>
+      <c r="C80" t="s">
+        <v>716</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>642</v>
+        <v>718</v>
       </c>
       <c r="J80" t="s">
-        <v>643</v>
+        <v>719</v>
       </c>
       <c r="K80" t="s">
-        <v>644</v>
+        <v>720</v>
       </c>
       <c r="L80" t="s">
-        <v>645</v>
+        <v>721</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>646</v>
+        <v>722</v>
       </c>
       <c r="O80" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7789,56 +8348,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>647</v>
+        <v>723</v>
       </c>
       <c r="X80" t="s">
-        <v>648</v>
+        <v>724</v>
       </c>
       <c r="Y80" t="s">
-        <v>649</v>
+        <v>725</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>37799</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>146442</v>
+      </c>
+      <c r="C81" t="s">
+        <v>726</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>650</v>
+        <v>727</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>651</v>
+        <v>728</v>
       </c>
       <c r="J81" t="s">
-        <v>652</v>
+        <v>729</v>
       </c>
       <c r="K81" t="s">
-        <v>653</v>
+        <v>730</v>
       </c>
       <c r="L81" t="s">
-        <v>654</v>
+        <v>731</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>655</v>
+        <v>732</v>
       </c>
       <c r="O81" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7860,56 +8423,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>656</v>
+        <v>733</v>
       </c>
       <c r="X81" t="s">
-        <v>657</v>
+        <v>734</v>
       </c>
       <c r="Y81" t="s">
-        <v>658</v>
+        <v>735</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>37799</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>408</v>
+      </c>
+      <c r="C82" t="s">
+        <v>736</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>659</v>
+        <v>737</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>660</v>
+        <v>738</v>
       </c>
       <c r="J82" t="s">
-        <v>661</v>
+        <v>739</v>
       </c>
       <c r="K82" t="s">
-        <v>662</v>
+        <v>740</v>
       </c>
       <c r="L82" t="s">
-        <v>663</v>
+        <v>741</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>655</v>
+        <v>732</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7931,56 +8498,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>656</v>
+        <v>733</v>
       </c>
       <c r="X82" t="s">
-        <v>657</v>
+        <v>734</v>
       </c>
       <c r="Y82" t="s">
-        <v>664</v>
+        <v>742</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>37799</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>146443</v>
+      </c>
+      <c r="C83" t="s">
+        <v>743</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>665</v>
+        <v>744</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>666</v>
+        <v>745</v>
       </c>
       <c r="J83" t="s">
-        <v>667</v>
+        <v>746</v>
       </c>
       <c r="K83" t="s">
-        <v>668</v>
+        <v>747</v>
       </c>
       <c r="L83" t="s">
-        <v>669</v>
+        <v>748</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>670</v>
+        <v>749</v>
       </c>
       <c r="O83" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8002,56 +8573,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="X83" t="s">
-        <v>672</v>
+        <v>751</v>
       </c>
       <c r="Y83" t="s">
-        <v>673</v>
+        <v>752</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>37799</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>146444</v>
+      </c>
+      <c r="C84" t="s">
+        <v>753</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>674</v>
+        <v>754</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>675</v>
+        <v>755</v>
       </c>
       <c r="J84" t="s">
-        <v>667</v>
+        <v>746</v>
       </c>
       <c r="K84" t="s">
-        <v>676</v>
+        <v>756</v>
       </c>
       <c r="L84" t="s">
-        <v>677</v>
+        <v>757</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>670</v>
+        <v>749</v>
       </c>
       <c r="O84" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8073,56 +8648,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="X84" t="s">
-        <v>672</v>
+        <v>751</v>
       </c>
       <c r="Y84" t="s">
-        <v>678</v>
+        <v>758</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>37799</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>18584</v>
+      </c>
+      <c r="C85" t="s">
+        <v>759</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>679</v>
+        <v>760</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>680</v>
+        <v>761</v>
       </c>
       <c r="J85" t="s">
-        <v>681</v>
+        <v>762</v>
       </c>
       <c r="K85" t="s">
-        <v>682</v>
+        <v>763</v>
       </c>
       <c r="L85" t="s">
-        <v>683</v>
+        <v>764</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>684</v>
+        <v>765</v>
       </c>
       <c r="O85" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8146,7 +8725,7 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>683</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_261.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_261.xlsx
@@ -2819,7 +2819,7 @@
         <v>37799</v>
       </c>
       <c r="B2" t="n">
-        <v>146387</v>
+        <v>177723</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2884,7 +2884,7 @@
         <v>37799</v>
       </c>
       <c r="B3" t="n">
-        <v>146388</v>
+        <v>177724</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2949,7 +2949,7 @@
         <v>37799</v>
       </c>
       <c r="B4" t="n">
-        <v>146389</v>
+        <v>177725</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -3024,7 +3024,7 @@
         <v>37799</v>
       </c>
       <c r="B5" t="n">
-        <v>146390</v>
+        <v>177726</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
@@ -3099,7 +3099,7 @@
         <v>37799</v>
       </c>
       <c r="B6" t="n">
-        <v>146391</v>
+        <v>177727</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -3235,7 +3235,7 @@
         <v>37799</v>
       </c>
       <c r="B8" t="n">
-        <v>146392</v>
+        <v>177728</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
@@ -3375,7 +3375,7 @@
         <v>37799</v>
       </c>
       <c r="B10" t="n">
-        <v>146393</v>
+        <v>177729</v>
       </c>
       <c r="C10" t="s">
         <v>128</v>
@@ -3525,7 +3525,7 @@
         <v>37799</v>
       </c>
       <c r="B12" t="n">
-        <v>146394</v>
+        <v>177730</v>
       </c>
       <c r="C12" t="s">
         <v>148</v>
@@ -3600,7 +3600,7 @@
         <v>37799</v>
       </c>
       <c r="B13" t="n">
-        <v>146395</v>
+        <v>177731</v>
       </c>
       <c r="C13" t="s">
         <v>158</v>
@@ -3740,7 +3740,7 @@
         <v>37799</v>
       </c>
       <c r="B15" t="n">
-        <v>146396</v>
+        <v>177732</v>
       </c>
       <c r="C15" t="s">
         <v>177</v>
@@ -3813,7 +3813,7 @@
         <v>37799</v>
       </c>
       <c r="B16" t="n">
-        <v>146397</v>
+        <v>177733</v>
       </c>
       <c r="C16" t="s">
         <v>186</v>
@@ -3888,7 +3888,7 @@
         <v>37799</v>
       </c>
       <c r="B17" t="n">
-        <v>146398</v>
+        <v>177734</v>
       </c>
       <c r="C17" t="s">
         <v>195</v>
@@ -3959,7 +3959,7 @@
         <v>37799</v>
       </c>
       <c r="B18" t="n">
-        <v>146399</v>
+        <v>177735</v>
       </c>
       <c r="C18" t="s">
         <v>205</v>
@@ -4030,7 +4030,7 @@
         <v>37799</v>
       </c>
       <c r="B19" t="n">
-        <v>146400</v>
+        <v>177736</v>
       </c>
       <c r="C19" t="s">
         <v>215</v>
@@ -4091,7 +4091,7 @@
         <v>37799</v>
       </c>
       <c r="B20" t="n">
-        <v>146401</v>
+        <v>177737</v>
       </c>
       <c r="C20" t="s">
         <v>221</v>
@@ -4292,7 +4292,7 @@
         <v>37799</v>
       </c>
       <c r="B23" t="n">
-        <v>146402</v>
+        <v>177738</v>
       </c>
       <c r="C23" t="s">
         <v>249</v>
@@ -4414,7 +4414,7 @@
         <v>37799</v>
       </c>
       <c r="B25" t="n">
-        <v>146403</v>
+        <v>177739</v>
       </c>
       <c r="C25" t="s">
         <v>264</v>
@@ -4475,7 +4475,7 @@
         <v>37799</v>
       </c>
       <c r="B26" t="n">
-        <v>146404</v>
+        <v>177740</v>
       </c>
       <c r="C26" t="s">
         <v>273</v>
@@ -4542,7 +4542,7 @@
         <v>37799</v>
       </c>
       <c r="B27" t="n">
-        <v>146405</v>
+        <v>177741</v>
       </c>
       <c r="C27" t="s">
         <v>281</v>
@@ -4607,7 +4607,7 @@
         <v>37799</v>
       </c>
       <c r="B28" t="n">
-        <v>146406</v>
+        <v>177742</v>
       </c>
       <c r="C28" t="s">
         <v>288</v>
@@ -4747,7 +4747,7 @@
         <v>37799</v>
       </c>
       <c r="B30" t="n">
-        <v>146407</v>
+        <v>177743</v>
       </c>
       <c r="C30" t="s">
         <v>308</v>
@@ -4944,7 +4944,7 @@
         <v>37799</v>
       </c>
       <c r="B33" t="n">
-        <v>146408</v>
+        <v>177744</v>
       </c>
       <c r="C33" t="s">
         <v>334</v>
@@ -5086,7 +5086,7 @@
         <v>37799</v>
       </c>
       <c r="B35" t="n">
-        <v>146409</v>
+        <v>177745</v>
       </c>
       <c r="C35" t="s">
         <v>350</v>
@@ -5155,7 +5155,7 @@
         <v>37799</v>
       </c>
       <c r="B36" t="n">
-        <v>146410</v>
+        <v>177746</v>
       </c>
       <c r="C36" t="s">
         <v>360</v>
@@ -5224,7 +5224,7 @@
         <v>37799</v>
       </c>
       <c r="B37" t="n">
-        <v>146411</v>
+        <v>177747</v>
       </c>
       <c r="C37" t="s">
         <v>370</v>
@@ -5295,7 +5295,7 @@
         <v>37799</v>
       </c>
       <c r="B38" t="n">
-        <v>146412</v>
+        <v>177748</v>
       </c>
       <c r="C38" t="s">
         <v>379</v>
@@ -5360,7 +5360,7 @@
         <v>37799</v>
       </c>
       <c r="B39" t="n">
-        <v>146413</v>
+        <v>177749</v>
       </c>
       <c r="C39" t="s">
         <v>389</v>
@@ -5429,7 +5429,7 @@
         <v>37799</v>
       </c>
       <c r="B40" t="n">
-        <v>146414</v>
+        <v>177750</v>
       </c>
       <c r="C40" t="s">
         <v>399</v>
@@ -5705,7 +5705,7 @@
         <v>37799</v>
       </c>
       <c r="B44" t="n">
-        <v>146415</v>
+        <v>177751</v>
       </c>
       <c r="C44" t="s">
         <v>435</v>
@@ -5772,7 +5772,7 @@
         <v>37799</v>
       </c>
       <c r="B45" t="n">
-        <v>146416</v>
+        <v>146403</v>
       </c>
       <c r="C45" t="s">
         <v>441</v>
@@ -5839,7 +5839,7 @@
         <v>37799</v>
       </c>
       <c r="B46" t="n">
-        <v>146417</v>
+        <v>146402</v>
       </c>
       <c r="C46" t="s">
         <v>448</v>
@@ -6044,7 +6044,7 @@
         <v>37799</v>
       </c>
       <c r="B49" t="n">
-        <v>146418</v>
+        <v>177752</v>
       </c>
       <c r="C49" t="s">
         <v>467</v>
@@ -6111,7 +6111,7 @@
         <v>37799</v>
       </c>
       <c r="B50" t="n">
-        <v>146419</v>
+        <v>177753</v>
       </c>
       <c r="C50" t="s">
         <v>473</v>
@@ -6182,7 +6182,7 @@
         <v>37799</v>
       </c>
       <c r="B51" t="n">
-        <v>146416</v>
+        <v>146402</v>
       </c>
       <c r="C51" t="s">
         <v>448</v>
@@ -6249,7 +6249,7 @@
         <v>37799</v>
       </c>
       <c r="B52" t="n">
-        <v>146415</v>
+        <v>146403</v>
       </c>
       <c r="C52" t="s">
         <v>441</v>
@@ -6320,7 +6320,7 @@
         <v>37799</v>
       </c>
       <c r="B53" t="n">
-        <v>146420</v>
+        <v>177754</v>
       </c>
       <c r="C53" t="s">
         <v>493</v>
@@ -6391,7 +6391,7 @@
         <v>37799</v>
       </c>
       <c r="B54" t="n">
-        <v>146421</v>
+        <v>177755</v>
       </c>
       <c r="C54" t="s">
         <v>500</v>
@@ -6466,7 +6466,7 @@
         <v>37799</v>
       </c>
       <c r="B55" t="n">
-        <v>146422</v>
+        <v>177756</v>
       </c>
       <c r="C55" t="s">
         <v>510</v>
@@ -6752,7 +6752,7 @@
         <v>37799</v>
       </c>
       <c r="B59" t="n">
-        <v>146423</v>
+        <v>177757</v>
       </c>
       <c r="C59" t="s">
         <v>542</v>
@@ -6827,7 +6827,7 @@
         <v>37799</v>
       </c>
       <c r="B60" t="n">
-        <v>146424</v>
+        <v>177758</v>
       </c>
       <c r="C60" t="s">
         <v>551</v>
@@ -6902,7 +6902,7 @@
         <v>37799</v>
       </c>
       <c r="B61" t="n">
-        <v>146425</v>
+        <v>177759</v>
       </c>
       <c r="C61" t="s">
         <v>560</v>
@@ -6973,7 +6973,7 @@
         <v>37799</v>
       </c>
       <c r="B62" t="n">
-        <v>146426</v>
+        <v>177760</v>
       </c>
       <c r="C62" t="s">
         <v>569</v>
@@ -7048,7 +7048,7 @@
         <v>37799</v>
       </c>
       <c r="B63" t="n">
-        <v>146427</v>
+        <v>177761</v>
       </c>
       <c r="C63" t="s">
         <v>579</v>
@@ -7115,7 +7115,7 @@
         <v>37799</v>
       </c>
       <c r="B64" t="n">
-        <v>146428</v>
+        <v>177762</v>
       </c>
       <c r="C64" t="s">
         <v>585</v>
@@ -7186,7 +7186,7 @@
         <v>37799</v>
       </c>
       <c r="B65" t="n">
-        <v>146429</v>
+        <v>177763</v>
       </c>
       <c r="C65" t="s">
         <v>591</v>
@@ -7257,7 +7257,7 @@
         <v>37799</v>
       </c>
       <c r="B66" t="n">
-        <v>146430</v>
+        <v>177764</v>
       </c>
       <c r="C66" t="s">
         <v>599</v>
@@ -7332,7 +7332,7 @@
         <v>37799</v>
       </c>
       <c r="B67" t="n">
-        <v>146431</v>
+        <v>146407</v>
       </c>
       <c r="C67" t="s">
         <v>608</v>
@@ -7407,7 +7407,7 @@
         <v>37799</v>
       </c>
       <c r="B68" t="n">
-        <v>146432</v>
+        <v>177765</v>
       </c>
       <c r="C68" t="s">
         <v>617</v>
@@ -7478,7 +7478,7 @@
         <v>37799</v>
       </c>
       <c r="B69" t="n">
-        <v>146433</v>
+        <v>177766</v>
       </c>
       <c r="C69" t="s">
         <v>626</v>
@@ -7549,7 +7549,7 @@
         <v>37799</v>
       </c>
       <c r="B70" t="n">
-        <v>146434</v>
+        <v>177767</v>
       </c>
       <c r="C70" t="s">
         <v>635</v>
@@ -7624,7 +7624,7 @@
         <v>37799</v>
       </c>
       <c r="B71" t="n">
-        <v>146435</v>
+        <v>177768</v>
       </c>
       <c r="C71" t="s">
         <v>645</v>
@@ -7691,7 +7691,7 @@
         <v>37799</v>
       </c>
       <c r="B72" t="n">
-        <v>146436</v>
+        <v>177769</v>
       </c>
       <c r="C72" t="s">
         <v>652</v>
@@ -7766,7 +7766,7 @@
         <v>37799</v>
       </c>
       <c r="B73" t="n">
-        <v>146430</v>
+        <v>146407</v>
       </c>
       <c r="C73" t="s">
         <v>608</v>
@@ -7916,7 +7916,7 @@
         <v>37799</v>
       </c>
       <c r="B75" t="n">
-        <v>146437</v>
+        <v>177770</v>
       </c>
       <c r="C75" t="s">
         <v>678</v>
@@ -8062,7 +8062,7 @@
         <v>37799</v>
       </c>
       <c r="B77" t="n">
-        <v>146438</v>
+        <v>177771</v>
       </c>
       <c r="C77" t="s">
         <v>694</v>
@@ -8137,7 +8137,7 @@
         <v>37799</v>
       </c>
       <c r="B78" t="n">
-        <v>146439</v>
+        <v>177772</v>
       </c>
       <c r="C78" t="s">
         <v>703</v>
@@ -8212,7 +8212,7 @@
         <v>37799</v>
       </c>
       <c r="B79" t="n">
-        <v>146440</v>
+        <v>177773</v>
       </c>
       <c r="C79" t="s">
         <v>709</v>
@@ -8287,7 +8287,7 @@
         <v>37799</v>
       </c>
       <c r="B80" t="n">
-        <v>146441</v>
+        <v>177774</v>
       </c>
       <c r="C80" t="s">
         <v>716</v>
@@ -8362,7 +8362,7 @@
         <v>37799</v>
       </c>
       <c r="B81" t="n">
-        <v>146442</v>
+        <v>177775</v>
       </c>
       <c r="C81" t="s">
         <v>726</v>
@@ -8512,7 +8512,7 @@
         <v>37799</v>
       </c>
       <c r="B83" t="n">
-        <v>146443</v>
+        <v>177776</v>
       </c>
       <c r="C83" t="s">
         <v>743</v>
@@ -8587,7 +8587,7 @@
         <v>37799</v>
       </c>
       <c r="B84" t="n">
-        <v>146444</v>
+        <v>177777</v>
       </c>
       <c r="C84" t="s">
         <v>753</v>
